--- a/Resources/1996/Master_1996.xlsx
+++ b/Resources/1996/Master_1996.xlsx
@@ -3651,10 +3651,10 @@
         <v>13.90134529147982</v>
       </c>
       <c r="BN2">
-        <v>51.38121546961326</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BO2">
-        <v>150</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="3" spans="1:67">
@@ -3854,10 +3854,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BN3">
-        <v>44.47513812154696</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO3">
-        <v>129.8387096774194</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="4" spans="1:67">
@@ -4057,10 +4057,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN4">
-        <v>26.51933701657459</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO4">
-        <v>77.41935483870968</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="5" spans="1:67">
@@ -4260,10 +4260,10 @@
         <v>6.502242152466367</v>
       </c>
       <c r="BN5">
-        <v>24.03314917127071</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO5">
-        <v>70.16129032258064</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="6" spans="1:67">
@@ -4463,10 +4463,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BN6">
-        <v>21.54696132596685</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO6">
-        <v>62.90322580645162</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="7" spans="1:67">
@@ -4666,10 +4666,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN7">
-        <v>32.59668508287293</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO7">
-        <v>95.16129032258065</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="8" spans="1:67">
@@ -4866,10 +4866,10 @@
         <v>2.316890881913304</v>
       </c>
       <c r="BN8">
-        <v>8.563535911602209</v>
+        <v>-1.657458563535912</v>
       </c>
       <c r="BO8">
-        <v>25</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="9" spans="1:67">
@@ -5069,10 +5069,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN9">
-        <v>32.59668508287293</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO9">
-        <v>95.16129032258065</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="10" spans="1:67">
@@ -5272,10 +5272,10 @@
         <v>5.754857997010463</v>
       </c>
       <c r="BN10">
-        <v>21.2707182320442</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO10">
-        <v>62.09677419354838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:67">
@@ -5475,10 +5475,10 @@
         <v>14.57399103139013</v>
       </c>
       <c r="BN11">
-        <v>53.86740331491713</v>
+        <v>21.2707182320442</v>
       </c>
       <c r="BO11">
-        <v>157.258064516129</v>
+        <v>20.96774193548387</v>
       </c>
     </row>
     <row r="12" spans="1:67">
@@ -5678,10 +5678,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BN12">
-        <v>45.58011049723756</v>
+        <v>20.44198895027624</v>
       </c>
       <c r="BO12">
-        <v>133.0645161290323</v>
+        <v>28.2258064516129</v>
       </c>
     </row>
     <row r="13" spans="1:67">
@@ -5881,10 +5881,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN13">
-        <v>31.21546961325967</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO13">
-        <v>91.12903225806453</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="14" spans="1:67">
@@ -6084,10 +6084,10 @@
         <v>13.90134529147982</v>
       </c>
       <c r="BN14">
-        <v>51.38121546961326</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BO14">
-        <v>150</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="15" spans="1:67">
@@ -6287,10 +6287,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BN15">
-        <v>47.79005524861878</v>
+        <v>19.33701657458563</v>
       </c>
       <c r="BO15">
-        <v>139.5161290322581</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="16" spans="1:67">
@@ -6490,10 +6490,10 @@
         <v>24.2152466367713</v>
       </c>
       <c r="BN16">
-        <v>89.50276243093921</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO16">
-        <v>261.2903225806451</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="17" spans="1:67">
@@ -6693,10 +6693,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BN17">
-        <v>32.87292817679558</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BO17">
-        <v>95.96774193548387</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="18" spans="1:67">
@@ -6896,10 +6896,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN18">
-        <v>27.62430939226519</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO18">
-        <v>80.64516129032258</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="19" spans="1:67">
@@ -7099,10 +7099,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN19">
-        <v>43.92265193370166</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO19">
-        <v>128.2258064516129</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="20" spans="1:67">
@@ -7299,10 +7299,10 @@
         <v>5.156950672645739</v>
       </c>
       <c r="BN20">
-        <v>19.06077348066298</v>
+        <v>-3.314917127071823</v>
       </c>
       <c r="BO20">
-        <v>55.64516129032258</v>
+        <v>-13.70967741935484</v>
       </c>
     </row>
     <row r="21" spans="1:67">
@@ -7502,10 +7502,10 @@
         <v>13.75186846038864</v>
       </c>
       <c r="BN21">
-        <v>50.82872928176795</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BO21">
-        <v>148.3870967741935</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="22" spans="1:67">
@@ -7705,10 +7705,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BN22">
-        <v>23.20441988950276</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO22">
-        <v>67.74193548387098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:67">
@@ -7908,10 +7908,10 @@
         <v>18.53512705530643</v>
       </c>
       <c r="BN23">
-        <v>68.50828729281767</v>
+        <v>29.00552486187845</v>
       </c>
       <c r="BO23">
-        <v>200</v>
+        <v>41.93548387096774</v>
       </c>
     </row>
     <row r="24" spans="1:67">
@@ -8111,10 +8111,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN24">
-        <v>43.0939226519337</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO24">
-        <v>125.8064516129032</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="25" spans="1:67">
@@ -8314,10 +8314,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN25">
-        <v>43.92265193370166</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO25">
-        <v>128.2258064516129</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="26" spans="1:67">
@@ -8517,10 +8517,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BN26">
-        <v>41.16022099447514</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO26">
-        <v>120.1612903225807</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="27" spans="1:67">
@@ -8717,10 +8717,10 @@
         <v>0.5979073243647235</v>
       </c>
       <c r="BN27">
-        <v>2.209944751381215</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO27">
-        <v>6.451612903225806</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="28" spans="1:67">
@@ -8920,10 +8920,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN28">
-        <v>39.77900552486188</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO28">
-        <v>116.1290322580645</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="29" spans="1:67">
@@ -9120,10 +9120,10 @@
         <v>-0.3736920777279522</v>
       </c>
       <c r="BN29">
-        <v>-1.38121546961326</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO29">
-        <v>-4.032258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="30" spans="1:67">
@@ -9323,10 +9323,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BN30">
-        <v>36.74033149171271</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO30">
-        <v>107.258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:67">
@@ -9526,10 +9526,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN31">
-        <v>33.70165745856353</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BO31">
-        <v>98.38709677419354</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="32" spans="1:67">
@@ -9729,10 +9729,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN32">
-        <v>31.76795580110497</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO32">
-        <v>92.74193548387096</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="33" spans="1:67">
@@ -9932,10 +9932,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BN33">
-        <v>52.20994475138121</v>
+        <v>24.86187845303867</v>
       </c>
       <c r="BO33">
-        <v>152.4193548387097</v>
+        <v>42.74193548387096</v>
       </c>
     </row>
     <row r="34" spans="1:67">
@@ -10135,10 +10135,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BN34">
-        <v>30.11049723756906</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO34">
-        <v>87.90322580645162</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="35" spans="1:67">
@@ -10338,10 +10338,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN35">
-        <v>29.2817679558011</v>
+        <v>0</v>
       </c>
       <c r="BO35">
-        <v>85.48387096774192</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="36" spans="1:67">
@@ -10538,10 +10538,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN36">
-        <v>31.21546961325967</v>
+        <v>0</v>
       </c>
       <c r="BO36">
-        <v>91.12903225806453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:67">
@@ -10741,10 +10741,10 @@
         <v>4.633781763826607</v>
       </c>
       <c r="BN37">
-        <v>17.12707182320442</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO37">
-        <v>50</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="38" spans="1:67">
@@ -10944,10 +10944,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN38">
-        <v>28.7292817679558</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO38">
-        <v>83.87096774193549</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="39" spans="1:67">
@@ -11147,10 +11147,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BN39">
-        <v>48.89502762430939</v>
+        <v>0</v>
       </c>
       <c r="BO39">
-        <v>142.7419354838709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:67">
@@ -11350,10 +11350,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BN40">
-        <v>43.37016574585635</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO40">
-        <v>126.6129032258064</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="41" spans="1:67">
@@ -11550,10 +11550,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN41">
-        <v>27.07182320441989</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO41">
-        <v>79.03225806451614</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="42" spans="1:67">
@@ -11753,10 +11753,10 @@
         <v>18.83408071748879</v>
       </c>
       <c r="BN42">
-        <v>69.61325966850828</v>
+        <v>35.08287292817679</v>
       </c>
       <c r="BO42">
-        <v>203.2258064516129</v>
+        <v>41.93548387096774</v>
       </c>
     </row>
     <row r="43" spans="1:67">
@@ -11956,10 +11956,10 @@
         <v>4.633781763826607</v>
       </c>
       <c r="BN43">
-        <v>17.12707182320442</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO43">
-        <v>50</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="44" spans="1:67">
@@ -12159,10 +12159,10 @@
         <v>6.427503736920777</v>
       </c>
       <c r="BN44">
-        <v>23.75690607734806</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO44">
-        <v>69.35483870967741</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="45" spans="1:67">
@@ -12362,10 +12362,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN45">
-        <v>45.85635359116022</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO45">
-        <v>133.8709677419355</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="46" spans="1:67">
@@ -12565,10 +12565,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN46">
-        <v>37.84530386740331</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BO46">
-        <v>110.4838709677419</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="47" spans="1:67">
@@ -12768,10 +12768,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN47">
-        <v>37.84530386740331</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO47">
-        <v>110.4838709677419</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="48" spans="1:67">
@@ -12968,10 +12968,10 @@
         <v>5.455904334828101</v>
       </c>
       <c r="BN48">
-        <v>20.16574585635359</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO48">
-        <v>58.87096774193547</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="49" spans="1:67">
@@ -13171,10 +13171,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN49">
-        <v>34.80662983425414</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO49">
-        <v>101.6129032258064</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="50" spans="1:67">
@@ -13374,10 +13374,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN50">
-        <v>30.93922651933701</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO50">
-        <v>90.32258064516128</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="51" spans="1:67">
@@ -13577,10 +13577,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN51">
-        <v>36.1878453038674</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BO51">
-        <v>105.6451612903226</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="52" spans="1:67">
@@ -13780,10 +13780,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN52">
-        <v>38.95027624309392</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO52">
-        <v>113.7096774193548</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="53" spans="1:67">
@@ -13983,10 +13983,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN53">
-        <v>31.76795580110497</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO53">
-        <v>92.74193548387096</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="54" spans="1:67">
@@ -14186,10 +14186,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN54">
-        <v>35.91160220994475</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO54">
-        <v>104.8387096774193</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="55" spans="1:67">
@@ -14386,10 +14386,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BN55">
-        <v>24.86187845303867</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO55">
-        <v>72.58064516129032</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="56" spans="1:67">
@@ -14589,10 +14589,10 @@
         <v>5.530642750373691</v>
       </c>
       <c r="BN56">
-        <v>20.44198895027624</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO56">
-        <v>59.67741935483871</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="57" spans="1:67">
@@ -14792,10 +14792,10 @@
         <v>5.904334828101645</v>
       </c>
       <c r="BN57">
-        <v>21.8232044198895</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO57">
-        <v>63.70967741935484</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="58" spans="1:67">
@@ -14995,10 +14995,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN58">
-        <v>38.95027624309392</v>
+        <v>22.3756906077348</v>
       </c>
       <c r="BO58">
-        <v>113.7096774193548</v>
+        <v>18.54838709677419</v>
       </c>
     </row>
     <row r="59" spans="1:67">
@@ -15195,10 +15195,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN59">
-        <v>28.7292817679558</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO59">
-        <v>83.87096774193549</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="60" spans="1:67">
@@ -15398,10 +15398,10 @@
         <v>13.45291479820628</v>
       </c>
       <c r="BN60">
-        <v>49.72375690607734</v>
+        <v>22.65193370165745</v>
       </c>
       <c r="BO60">
-        <v>145.1612903225806</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="61" spans="1:67">
@@ -15601,10 +15601,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN61">
-        <v>29.2817679558011</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO61">
-        <v>85.48387096774192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:67">
@@ -15804,10 +15804,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BN62">
-        <v>29.00552486187845</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO62">
-        <v>84.67741935483872</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="63" spans="1:67">
@@ -16007,10 +16007,10 @@
         <v>12.55605381165919</v>
       </c>
       <c r="BN63">
-        <v>46.40883977900553</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BO63">
-        <v>135.483870967742</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="64" spans="1:67">
@@ -16210,10 +16210,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BN64">
-        <v>27.34806629834254</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO64">
-        <v>79.83870967741935</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="65" spans="1:67">
@@ -16413,10 +16413,10 @@
         <v>16.51718983557549</v>
       </c>
       <c r="BN65">
-        <v>61.04972375690607</v>
+        <v>27.07182320441989</v>
       </c>
       <c r="BO65">
-        <v>178.2258064516129</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="66" spans="1:67">
@@ -16616,10 +16616,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN66">
-        <v>35.91160220994475</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BO66">
-        <v>104.8387096774193</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="67" spans="1:67">
@@ -16819,10 +16819,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN67">
-        <v>35.91160220994475</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BO67">
-        <v>104.8387096774193</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="68" spans="1:67">
@@ -17022,10 +17022,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BN68">
-        <v>34.53038674033149</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO68">
-        <v>100.8064516129032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:67">
@@ -17225,10 +17225,10 @@
         <v>5.007473841554559</v>
       </c>
       <c r="BN69">
-        <v>18.50828729281768</v>
+        <v>0</v>
       </c>
       <c r="BO69">
-        <v>54.03225806451613</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="70" spans="1:67">
@@ -17428,10 +17428,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BN70">
-        <v>45.3038674033149</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BO70">
-        <v>132.258064516129</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="71" spans="1:67">
@@ -17631,10 +17631,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BN71">
-        <v>38.67403314917127</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO71">
-        <v>112.9032258064516</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="72" spans="1:67">
@@ -17828,10 +17828,10 @@
         <v>0.896860986547085</v>
       </c>
       <c r="BN72">
-        <v>3.314917127071823</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO72">
-        <v>9.67741935483871</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="73" spans="1:67">
@@ -18028,10 +18028,10 @@
         <v>0.1494768310911809</v>
       </c>
       <c r="BN73">
-        <v>0.5524861878453038</v>
+        <v>0</v>
       </c>
       <c r="BO73">
-        <v>1.612903225806452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:67">
@@ -18225,10 +18225,10 @@
         <v>27.87742899850523</v>
       </c>
       <c r="BN74">
-        <v>103.0386740331491</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO74">
-        <v>300.8064516129032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:67">
@@ -18428,10 +18428,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BN75">
-        <v>33.14917127071823</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO75">
-        <v>96.77419354838709</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="76" spans="1:67">
@@ -18631,10 +18631,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN76">
-        <v>34.25414364640883</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO76">
-        <v>100</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="77" spans="1:67">
@@ -18834,10 +18834,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN77">
-        <v>33.70165745856353</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO77">
-        <v>98.38709677419354</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="78" spans="1:67">
@@ -19037,10 +19037,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BN78">
-        <v>20.99447513812154</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO78">
-        <v>61.29032258064515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:67">
@@ -19240,10 +19240,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN79">
-        <v>34.80662983425414</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO79">
-        <v>101.6129032258064</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="80" spans="1:67">
@@ -19440,10 +19440,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BN80">
-        <v>19.33701657458563</v>
+        <v>0</v>
       </c>
       <c r="BO80">
-        <v>56.4516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="81" spans="1:67">
@@ -19643,10 +19643,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN81">
-        <v>35.91160220994475</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO81">
-        <v>104.8387096774193</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="82" spans="1:67">
@@ -19846,10 +19846,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN82">
-        <v>38.39779005524861</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO82">
-        <v>112.0967741935484</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="83" spans="1:67">
@@ -20049,10 +20049,10 @@
         <v>12.55605381165919</v>
       </c>
       <c r="BN83">
-        <v>46.40883977900553</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BO83">
-        <v>135.483870967742</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="84" spans="1:67">
@@ -20252,10 +20252,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN84">
-        <v>25.96685082872928</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO84">
-        <v>75.80645161290323</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="85" spans="1:67">
@@ -20455,10 +20455,10 @@
         <v>1.569506726457399</v>
       </c>
       <c r="BN85">
-        <v>5.801104972375691</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO85">
-        <v>16.93548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="86" spans="1:67">
@@ -20658,10 +20658,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN86">
-        <v>39.77900552486188</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO86">
-        <v>116.1290322580645</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="87" spans="1:67">
@@ -20858,10 +20858,10 @@
         <v>4.559043348281016</v>
       </c>
       <c r="BN87">
-        <v>16.85082872928177</v>
+        <v>-1.38121546961326</v>
       </c>
       <c r="BO87">
-        <v>49.19354838709677</v>
+        <v>-12.09677419354839</v>
       </c>
     </row>
     <row r="88" spans="1:67">
@@ -21061,10 +21061,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN88">
-        <v>38.39779005524861</v>
+        <v>16.57458563535911</v>
       </c>
       <c r="BO88">
-        <v>112.0967741935484</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="89" spans="1:67">
@@ -21261,10 +21261,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN89">
-        <v>39.50276243093923</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BO89">
-        <v>115.3225806451613</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="90" spans="1:67">
@@ -21464,10 +21464,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN90">
-        <v>40.88397790055249</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO90">
-        <v>119.3548387096774</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="91" spans="1:67">
@@ -21667,10 +21667,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BN91">
-        <v>30.11049723756906</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO91">
-        <v>87.90322580645162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:67">
@@ -21867,10 +21867,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN92">
-        <v>27.62430939226519</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO92">
-        <v>80.64516129032258</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="93" spans="1:67">
@@ -22070,10 +22070,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN93">
-        <v>37.29281767955801</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO93">
-        <v>108.8709677419355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:67">
@@ -22273,10 +22273,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BN94">
-        <v>33.42541436464088</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO94">
-        <v>97.58064516129032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:67">
@@ -22476,10 +22476,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN95">
-        <v>46.13259668508287</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO95">
-        <v>134.6774193548387</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="96" spans="1:67">
@@ -22679,10 +22679,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN96">
-        <v>43.0939226519337</v>
+        <v>22.92817679558011</v>
       </c>
       <c r="BO96">
-        <v>125.8064516129032</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="97" spans="1:67">
@@ -22882,10 +22882,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN97">
-        <v>46.96132596685082</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO97">
-        <v>137.0967741935484</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="98" spans="1:67">
@@ -23085,10 +23085,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN98">
-        <v>47.23756906077348</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO98">
-        <v>137.9032258064516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:67">
@@ -23288,10 +23288,10 @@
         <v>13.00448430493273</v>
       </c>
       <c r="BN99">
-        <v>48.06629834254143</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BO99">
-        <v>140.3225806451613</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="100" spans="1:67">
@@ -23491,10 +23491,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BN100">
-        <v>40.33149171270718</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO100">
-        <v>117.7419354838709</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="101" spans="1:67">
@@ -23694,10 +23694,10 @@
         <v>14.94768310911808</v>
       </c>
       <c r="BN101">
-        <v>55.24861878453038</v>
+        <v>18.50828729281768</v>
       </c>
       <c r="BO101">
-        <v>161.2903225806452</v>
+        <v>27.41935483870968</v>
       </c>
     </row>
     <row r="102" spans="1:67">
@@ -23894,10 +23894,10 @@
         <v>-2.017937219730942</v>
       </c>
       <c r="BN102">
-        <v>-7.458563535911603</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO102">
-        <v>-21.7741935483871</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="103" spans="1:67">
@@ -24097,10 +24097,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN103">
-        <v>33.70165745856353</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BO103">
-        <v>98.38709677419354</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="104" spans="1:67">
@@ -24300,10 +24300,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN104">
-        <v>37.84530386740331</v>
+        <v>16.57458563535911</v>
       </c>
       <c r="BO104">
-        <v>110.4838709677419</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="105" spans="1:67">
@@ -24503,10 +24503,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN105">
-        <v>31.21546961325967</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO105">
-        <v>91.12903225806453</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="106" spans="1:67">
@@ -24706,10 +24706,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN106">
-        <v>41.98895027624309</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO106">
-        <v>122.5806451612903</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="107" spans="1:67">
@@ -24909,10 +24909,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BN107">
-        <v>34.53038674033149</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO107">
-        <v>100.8064516129032</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="108" spans="1:67">
@@ -25112,10 +25112,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN108">
-        <v>38.95027624309392</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO108">
-        <v>113.7096774193548</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="109" spans="1:67">
@@ -25315,10 +25315,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BN109">
-        <v>35.08287292817679</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO109">
-        <v>102.4193548387097</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="110" spans="1:67">
@@ -25518,10 +25518,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BN110">
-        <v>32.87292817679558</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO110">
-        <v>95.96774193548387</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="111" spans="1:67">
@@ -25721,10 +25721,10 @@
         <v>5.605381165919282</v>
       </c>
       <c r="BN111">
-        <v>20.71823204419889</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO111">
-        <v>60.48387096774194</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="112" spans="1:67">
@@ -25921,10 +25921,10 @@
         <v>2.615844544095665</v>
       </c>
       <c r="BN112">
-        <v>9.668508287292816</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO112">
-        <v>28.2258064516129</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="113" spans="1:67">
@@ -26124,10 +26124,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN113">
-        <v>27.07182320441989</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO113">
-        <v>79.03225806451614</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="114" spans="1:67">
@@ -26327,10 +26327,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN114">
-        <v>37.84530386740331</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO114">
-        <v>110.4838709677419</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="115" spans="1:67">
@@ -26530,10 +26530,10 @@
         <v>6.95067264573991</v>
       </c>
       <c r="BN115">
-        <v>25.69060773480663</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO115">
-        <v>75</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="116" spans="1:67">
@@ -26733,10 +26733,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BN116">
-        <v>40.33149171270718</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO116">
-        <v>117.7419354838709</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="117" spans="1:67">
@@ -26936,10 +26936,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BN117">
-        <v>45.02762430939226</v>
+        <v>21.2707182320442</v>
       </c>
       <c r="BO117">
-        <v>131.4516129032258</v>
+        <v>23.38709677419355</v>
       </c>
     </row>
     <row r="118" spans="1:67">
@@ -27139,10 +27139,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN118">
-        <v>40.60773480662983</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BO118">
-        <v>118.5483870967742</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="119" spans="1:67">
@@ -27342,10 +27342,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BN119">
-        <v>33.42541436464088</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO119">
-        <v>97.58064516129032</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="120" spans="1:67">
@@ -27542,10 +27542,10 @@
         <v>1.195814648729447</v>
       </c>
       <c r="BN120">
-        <v>4.41988950276243</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO120">
-        <v>12.90322580645161</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="121" spans="1:67">
@@ -27742,10 +27742,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN121">
-        <v>36.1878453038674</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO121">
-        <v>105.6451612903226</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="122" spans="1:67">
@@ -27945,10 +27945,10 @@
         <v>3.886397608370702</v>
       </c>
       <c r="BN122">
-        <v>14.3646408839779</v>
+        <v>-1.657458563535912</v>
       </c>
       <c r="BO122">
-        <v>41.93548387096774</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="123" spans="1:67">
@@ -28148,10 +28148,10 @@
         <v>15.6203288490284</v>
       </c>
       <c r="BN123">
-        <v>57.73480662983425</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BO123">
-        <v>168.5483870967742</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="124" spans="1:67">
@@ -28351,10 +28351,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BN124">
-        <v>30.11049723756906</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO124">
-        <v>87.90322580645162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:67">
@@ -28554,10 +28554,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN125">
-        <v>39.22651933701657</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BO125">
-        <v>114.516129032258</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="126" spans="1:67">
@@ -28757,10 +28757,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BN126">
-        <v>38.67403314917127</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BO126">
-        <v>112.9032258064516</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="127" spans="1:67">
@@ -28957,10 +28957,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BN127">
-        <v>45.58011049723756</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO127">
-        <v>133.0645161290323</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="128" spans="1:67">
@@ -29160,10 +29160,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN128">
-        <v>31.21546961325967</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO128">
-        <v>91.12903225806453</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="129" spans="1:67">
@@ -29363,10 +29363,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BN129">
-        <v>45.3038674033149</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO129">
-        <v>132.258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="130" spans="1:67">
@@ -29566,10 +29566,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BN130">
-        <v>24.86187845303867</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO130">
-        <v>72.58064516129032</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="131" spans="1:67">
@@ -29769,10 +29769,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BN131">
-        <v>44.47513812154696</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BO131">
-        <v>129.8387096774194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:67">
@@ -29972,10 +29972,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BN132">
-        <v>23.20441988950276</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO132">
-        <v>67.74193548387098</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="133" spans="1:67">
@@ -30175,10 +30175,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN133">
-        <v>43.64640883977901</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO133">
-        <v>127.4193548387097</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="134" spans="1:67">
@@ -30378,10 +30378,10 @@
         <v>14.87294469357249</v>
       </c>
       <c r="BN134">
-        <v>54.97237569060772</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BO134">
-        <v>160.4838709677419</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="135" spans="1:67">
@@ -30578,10 +30578,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN135">
-        <v>29.55801104972375</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO135">
-        <v>86.29032258064515</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="136" spans="1:67">
@@ -30781,10 +30781,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN136">
-        <v>39.22651933701657</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BO136">
-        <v>114.516129032258</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="137" spans="1:67">
@@ -30984,10 +30984,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BN137">
-        <v>42.81767955801104</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BO137">
-        <v>125</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="138" spans="1:67">
@@ -31187,10 +31187,10 @@
         <v>13.15396113602392</v>
       </c>
       <c r="BN138">
-        <v>48.61878453038674</v>
+        <v>18.50828729281768</v>
       </c>
       <c r="BO138">
-        <v>141.9354838709677</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="139" spans="1:67">
@@ -31390,10 +31390,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN139">
-        <v>28.7292817679558</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO139">
-        <v>83.87096774193549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:67">
@@ -31593,10 +31593,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN140">
-        <v>28.7292817679558</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO140">
-        <v>83.87096774193549</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="141" spans="1:67">
@@ -31796,10 +31796,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN141">
-        <v>30.66298342541436</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO141">
-        <v>89.51612903225806</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="142" spans="1:67">
@@ -31999,10 +31999,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BN142">
-        <v>23.48066298342541</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO142">
-        <v>68.54838709677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:67">
@@ -32202,10 +32202,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN143">
-        <v>43.64640883977901</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BO143">
-        <v>127.4193548387097</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="144" spans="1:67">
@@ -32405,10 +32405,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN144">
-        <v>37.29281767955801</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO144">
-        <v>108.8709677419355</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="145" spans="1:67">
@@ -32608,10 +32608,10 @@
         <v>5.754857997010463</v>
       </c>
       <c r="BN145">
-        <v>21.2707182320442</v>
+        <v>0</v>
       </c>
       <c r="BO145">
-        <v>62.09677419354838</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="146" spans="1:67">
@@ -32811,10 +32811,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN146">
-        <v>28.7292817679558</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO146">
-        <v>83.87096774193549</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="147" spans="1:67">
@@ -33014,10 +33014,10 @@
         <v>13.37817638266069</v>
       </c>
       <c r="BN147">
-        <v>49.44751381215469</v>
+        <v>22.09944751381216</v>
       </c>
       <c r="BO147">
-        <v>144.3548387096774</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="148" spans="1:67">
@@ -33217,10 +33217,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN148">
-        <v>35.63535911602209</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO148">
-        <v>104.0322580645161</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="149" spans="1:67">
@@ -33420,10 +33420,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN149">
-        <v>46.68508287292817</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO149">
-        <v>136.2903225806452</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="150" spans="1:67">
@@ -33620,10 +33620,10 @@
         <v>1.345291479820628</v>
       </c>
       <c r="BN150">
-        <v>4.972375690607735</v>
+        <v>0</v>
       </c>
       <c r="BO150">
-        <v>14.51612903225807</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="151" spans="1:67">
@@ -33820,10 +33820,10 @@
         <v>3.213751868460388</v>
       </c>
       <c r="BN151">
-        <v>11.87845303867403</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO151">
-        <v>34.6774193548387</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="152" spans="1:67">
@@ -34020,10 +34020,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BN152">
-        <v>29.00552486187845</v>
+        <v>0</v>
       </c>
       <c r="BO152">
-        <v>84.67741935483872</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="153" spans="1:67">
@@ -34220,10 +34220,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN153">
-        <v>30.93922651933701</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO153">
-        <v>90.32258064516128</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="154" spans="1:67">
@@ -34423,10 +34423,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN154">
-        <v>27.62430939226519</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO154">
-        <v>80.64516129032258</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="155" spans="1:67">
@@ -34626,10 +34626,10 @@
         <v>18.38565022421525</v>
       </c>
       <c r="BN155">
-        <v>67.95580110497238</v>
+        <v>39.77900552486188</v>
       </c>
       <c r="BO155">
-        <v>198.3870967741935</v>
+        <v>51.61290322580645</v>
       </c>
     </row>
     <row r="156" spans="1:67">
@@ -34829,10 +34829,10 @@
         <v>13.97608370702541</v>
       </c>
       <c r="BN156">
-        <v>51.6574585635359</v>
+        <v>20.16574585635359</v>
       </c>
       <c r="BO156">
-        <v>150.8064516129032</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="157" spans="1:67">
@@ -35032,10 +35032,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN157">
-        <v>38.39779005524861</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BO157">
-        <v>112.0967741935484</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="158" spans="1:67">
@@ -35235,10 +35235,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN158">
-        <v>39.77900552486188</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BO158">
-        <v>116.1290322580645</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="159" spans="1:67">
@@ -35438,10 +35438,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BN159">
-        <v>42.81767955801104</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO159">
-        <v>125</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="160" spans="1:67">
@@ -35641,10 +35641,10 @@
         <v>6.651718983557549</v>
       </c>
       <c r="BN160">
-        <v>24.58563535911602</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO160">
-        <v>71.7741935483871</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="161" spans="1:67">
@@ -35844,10 +35844,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BN161">
-        <v>44.47513812154696</v>
+        <v>26.24309392265193</v>
       </c>
       <c r="BO161">
-        <v>129.8387096774194</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="162" spans="1:67">
@@ -36044,10 +36044,10 @@
         <v>15.47085201793722</v>
       </c>
       <c r="BN162">
-        <v>57.18232044198894</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO162">
-        <v>166.9354838709677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:67">
@@ -36247,10 +36247,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN163">
-        <v>35.63535911602209</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO163">
-        <v>104.0322580645161</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="164" spans="1:67">
@@ -36450,10 +36450,10 @@
         <v>3.51270553064275</v>
       </c>
       <c r="BN164">
-        <v>12.98342541436464</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO164">
-        <v>37.90322580645162</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="165" spans="1:67">
@@ -36653,10 +36653,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN165">
-        <v>28.7292817679558</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO165">
-        <v>83.87096774193549</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="166" spans="1:67">
@@ -36856,10 +36856,10 @@
         <v>15.6203288490284</v>
       </c>
       <c r="BN166">
-        <v>57.73480662983425</v>
+        <v>32.32044198895027</v>
       </c>
       <c r="BO166">
-        <v>168.5483870967742</v>
+        <v>46.7741935483871</v>
       </c>
     </row>
     <row r="167" spans="1:67">
@@ -37056,10 +37056,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BN167">
-        <v>40.33149171270718</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO167">
-        <v>117.7419354838709</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="168" spans="1:67">
@@ -37253,10 +37253,10 @@
         <v>4.409566517189836</v>
       </c>
       <c r="BN168">
-        <v>16.29834254143647</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO168">
-        <v>47.58064516129033</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="169" spans="1:67">
@@ -37456,10 +37456,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN169">
-        <v>39.77900552486188</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO169">
-        <v>116.1290322580645</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="170" spans="1:67">
@@ -37659,10 +37659,10 @@
         <v>14.27503736920777</v>
       </c>
       <c r="BN170">
-        <v>52.76243093922653</v>
+        <v>28.17679558011049</v>
       </c>
       <c r="BO170">
-        <v>154.0322580645161</v>
+        <v>33.87096774193549</v>
       </c>
     </row>
     <row r="171" spans="1:67">
@@ -37862,10 +37862,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN171">
-        <v>37.84530386740331</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO171">
-        <v>110.4838709677419</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="172" spans="1:67">
@@ -38065,10 +38065,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BN172">
-        <v>43.37016574585635</v>
+        <v>19.61325966850828</v>
       </c>
       <c r="BO172">
-        <v>126.6129032258064</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="173" spans="1:67">
@@ -38268,10 +38268,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN173">
-        <v>36.1878453038674</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO173">
-        <v>105.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:67">
@@ -38471,10 +38471,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN174">
-        <v>46.96132596685082</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO174">
-        <v>137.0967741935484</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="175" spans="1:67">
@@ -38674,10 +38674,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN175">
-        <v>30.93922651933701</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BO175">
-        <v>90.32258064516128</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="176" spans="1:67">
@@ -38877,10 +38877,10 @@
         <v>4.857997010463378</v>
       </c>
       <c r="BN176">
-        <v>17.95580110497237</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO176">
-        <v>52.41935483870967</v>
+        <v>-11.29032258064516</v>
       </c>
     </row>
     <row r="177" spans="1:67">
@@ -39080,10 +39080,10 @@
         <v>1.121076233183856</v>
       </c>
       <c r="BN177">
-        <v>4.143646408839778</v>
+        <v>0</v>
       </c>
       <c r="BO177">
-        <v>12.09677419354839</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="178" spans="1:67">
@@ -39283,10 +39283,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN178">
-        <v>45.85635359116022</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BO178">
-        <v>133.8709677419355</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="179" spans="1:67">
@@ -39486,10 +39486,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN179">
-        <v>43.92265193370166</v>
+        <v>19.88950276243094</v>
       </c>
       <c r="BO179">
-        <v>128.2258064516129</v>
+        <v>20.96774193548387</v>
       </c>
     </row>
     <row r="180" spans="1:67">
@@ -39689,10 +39689,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BN180">
-        <v>27.34806629834254</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO180">
-        <v>79.83870967741935</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="181" spans="1:67">
@@ -39892,10 +39892,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BN181">
-        <v>45.02762430939226</v>
+        <v>25.13812154696132</v>
       </c>
       <c r="BO181">
-        <v>131.4516129032258</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="182" spans="1:67">
@@ -40095,10 +40095,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BN182">
-        <v>26.79558011049724</v>
+        <v>0</v>
       </c>
       <c r="BO182">
-        <v>78.2258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="183" spans="1:67">
@@ -40298,10 +40298,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN183">
-        <v>36.1878453038674</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO183">
-        <v>105.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:67">
@@ -40501,10 +40501,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN184">
-        <v>36.1878453038674</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BO184">
-        <v>105.6451612903226</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="185" spans="1:67">
@@ -40704,10 +40704,10 @@
         <v>17.04035874439462</v>
       </c>
       <c r="BN185">
-        <v>62.98342541436463</v>
+        <v>22.65193370165745</v>
       </c>
       <c r="BO185">
-        <v>183.8709677419355</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="186" spans="1:67">
@@ -40907,10 +40907,10 @@
         <v>14.7982062780269</v>
       </c>
       <c r="BN186">
-        <v>54.69613259668508</v>
+        <v>27.90055248618784</v>
       </c>
       <c r="BO186">
-        <v>159.6774193548387</v>
+        <v>36.29032258064516</v>
       </c>
     </row>
     <row r="187" spans="1:67">
@@ -41110,10 +41110,10 @@
         <v>15.76980568011958</v>
       </c>
       <c r="BN187">
-        <v>58.28729281767956</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BO187">
-        <v>170.1612903225806</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="188" spans="1:67">
@@ -41310,10 +41310,10 @@
         <v>6.053811659192824</v>
       </c>
       <c r="BN188">
-        <v>22.3756906077348</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO188">
-        <v>65.32258064516128</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="189" spans="1:67">
@@ -41513,10 +41513,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN189">
-        <v>46.96132596685082</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BO189">
-        <v>137.0967741935484</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:67">
@@ -41716,10 +41716,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN190">
-        <v>37.01657458563536</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO190">
-        <v>108.0645161290323</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="191" spans="1:67">
@@ -41919,10 +41919,10 @@
         <v>21.97309417040358</v>
       </c>
       <c r="BN191">
-        <v>81.21546961325966</v>
+        <v>56.35359116022099</v>
       </c>
       <c r="BO191">
-        <v>237.0967741935484</v>
+        <v>66.93548387096774</v>
       </c>
     </row>
     <row r="192" spans="1:67">
@@ -42119,10 +42119,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN192">
-        <v>47.23756906077348</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO192">
-        <v>137.9032258064516</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="193" spans="1:67">
@@ -42322,10 +42322,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN193">
-        <v>38.12154696132596</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BO193">
-        <v>111.2903225806452</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="194" spans="1:67">
@@ -42525,10 +42525,10 @@
         <v>16.89088191330344</v>
       </c>
       <c r="BN194">
-        <v>62.43093922651934</v>
+        <v>30.93922651933701</v>
       </c>
       <c r="BO194">
-        <v>182.2580645161291</v>
+        <v>31.45161290322581</v>
       </c>
     </row>
     <row r="195" spans="1:67">
@@ -42704,10 +42704,7 @@
         <v>-4.633781763826607</v>
       </c>
       <c r="BN195">
-        <v>-17.12707182320442</v>
-      </c>
-      <c r="BO195">
-        <v>-50</v>
+        <v>2.762430939226519</v>
       </c>
     </row>
     <row r="196" spans="1:67">
@@ -42907,10 +42904,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN196">
-        <v>41.98895027624309</v>
+        <v>22.92817679558011</v>
       </c>
       <c r="BO196">
-        <v>122.5806451612903</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="197" spans="1:67">
@@ -43110,10 +43107,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN197">
-        <v>36.1878453038674</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO197">
-        <v>105.6451612903226</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="198" spans="1:67">
@@ -43313,10 +43310,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BN198">
-        <v>29.83425414364641</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO198">
-        <v>87.09677419354838</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="199" spans="1:67">
@@ -43516,10 +43513,10 @@
         <v>13.3034379671151</v>
       </c>
       <c r="BN199">
-        <v>49.17127071823204</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BO199">
-        <v>143.5483870967742</v>
+        <v>28.2258064516129</v>
       </c>
     </row>
     <row r="200" spans="1:67">
@@ -43719,10 +43716,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BN200">
-        <v>29.83425414364641</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO200">
-        <v>87.09677419354838</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="201" spans="1:67">
@@ -43922,10 +43919,10 @@
         <v>0.5231689088191329</v>
       </c>
       <c r="BN201">
-        <v>1.933701657458563</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO201">
-        <v>5.64516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:67">
@@ -44125,10 +44122,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BN202">
-        <v>27.34806629834254</v>
+        <v>0</v>
       </c>
       <c r="BO202">
-        <v>79.83870967741935</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="203" spans="1:67">
@@ -44325,10 +44322,10 @@
         <v>1.494768310911809</v>
       </c>
       <c r="BN203">
-        <v>5.524861878453039</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO203">
-        <v>16.12903225806452</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="204" spans="1:67">
@@ -44528,10 +44525,10 @@
         <v>5.082212257100148</v>
       </c>
       <c r="BN204">
-        <v>18.78453038674033</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO204">
-        <v>54.83870967741935</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="205" spans="1:67">
@@ -44731,10 +44728,10 @@
         <v>5.30642750373692</v>
       </c>
       <c r="BN205">
-        <v>19.61325966850828</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO205">
-        <v>57.25806451612902</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="206" spans="1:67">
@@ -44934,10 +44931,10 @@
         <v>15.24663677130044</v>
       </c>
       <c r="BN206">
-        <v>56.35359116022099</v>
+        <v>27.90055248618784</v>
       </c>
       <c r="BO206">
-        <v>164.516129032258</v>
+        <v>28.2258064516129</v>
       </c>
     </row>
     <row r="207" spans="1:67">
@@ -45137,10 +45134,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BN207">
-        <v>48.89502762430939</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BO207">
-        <v>142.7419354838709</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="208" spans="1:67">
@@ -45340,10 +45337,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BN208">
-        <v>32.87292817679558</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO208">
-        <v>95.96774193548387</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="209" spans="1:67">
@@ -45543,10 +45540,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN209">
-        <v>31.76795580110497</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO209">
-        <v>92.74193548387096</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="210" spans="1:67">
@@ -45743,10 +45740,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN210">
-        <v>24.30939226519337</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO210">
-        <v>70.96774193548387</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="211" spans="1:67">
@@ -45946,10 +45943,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN211">
-        <v>43.92265193370166</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BO211">
-        <v>128.2258064516129</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="212" spans="1:67">
@@ -46149,10 +46146,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN212">
-        <v>43.92265193370166</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO212">
-        <v>128.2258064516129</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="213" spans="1:67">
@@ -46346,10 +46343,10 @@
         <v>46.8609865470852</v>
       </c>
       <c r="BN213">
-        <v>173.2044198895028</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO213">
-        <v>505.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:67">
@@ -46549,10 +46546,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN214">
-        <v>30.93922651933701</v>
+        <v>0</v>
       </c>
       <c r="BO214">
-        <v>90.32258064516128</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="215" spans="1:67">
@@ -46749,10 +46746,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN215">
-        <v>26.51933701657459</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO215">
-        <v>77.41935483870968</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="216" spans="1:67">
@@ -46952,10 +46949,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN216">
-        <v>29.2817679558011</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO216">
-        <v>85.48387096774192</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="217" spans="1:67">
@@ -47155,10 +47152,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BN217">
-        <v>44.75138121546961</v>
+        <v>23.20441988950276</v>
       </c>
       <c r="BO217">
-        <v>130.6451612903226</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="218" spans="1:67">
@@ -47355,10 +47352,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BN218">
-        <v>32.87292817679558</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO218">
-        <v>95.96774193548387</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="219" spans="1:67">
@@ -47558,10 +47555,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN219">
-        <v>31.49171270718232</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO219">
-        <v>91.93548387096774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:67">
@@ -47761,10 +47758,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN220">
-        <v>36.1878453038674</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO220">
-        <v>105.6451612903226</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="221" spans="1:67">
@@ -47964,10 +47961,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BN221">
-        <v>43.37016574585635</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO221">
-        <v>126.6129032258064</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="222" spans="1:67">
@@ -48167,10 +48164,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN222">
-        <v>26.24309392265193</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO222">
-        <v>76.61290322580645</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="223" spans="1:67">
@@ -48370,10 +48367,10 @@
         <v>5.605381165919282</v>
       </c>
       <c r="BN223">
-        <v>20.71823204419889</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO223">
-        <v>60.48387096774194</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="224" spans="1:67">
@@ -48573,10 +48570,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN224">
-        <v>41.71270718232044</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BO224">
-        <v>121.7741935483871</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="225" spans="1:67">
@@ -48776,10 +48773,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN225">
-        <v>24.30939226519337</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO225">
-        <v>70.96774193548387</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="226" spans="1:67">
@@ -48979,10 +48976,10 @@
         <v>19.43198804185351</v>
       </c>
       <c r="BN226">
-        <v>71.82320441988949</v>
+        <v>41.71270718232044</v>
       </c>
       <c r="BO226">
-        <v>209.6774193548387</v>
+        <v>59.67741935483871</v>
       </c>
     </row>
     <row r="227" spans="1:67">
@@ -49182,10 +49179,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN227">
-        <v>40.60773480662983</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO227">
-        <v>118.5483870967742</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="228" spans="1:67">
@@ -49385,10 +49382,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BN228">
-        <v>20.99447513812154</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO228">
-        <v>61.29032258064515</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="229" spans="1:67">
@@ -49588,10 +49585,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN229">
-        <v>46.13259668508287</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO229">
-        <v>134.6774193548387</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="230" spans="1:67">
@@ -49791,10 +49788,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BN230">
-        <v>29.00552486187845</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO230">
-        <v>84.67741935483872</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="231" spans="1:67">
@@ -49994,10 +49991,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BN231">
-        <v>35.08287292817679</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO231">
-        <v>102.4193548387097</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="232" spans="1:67">
@@ -50197,10 +50194,10 @@
         <v>15.39611360239163</v>
       </c>
       <c r="BN232">
-        <v>56.9060773480663</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO232">
-        <v>166.1290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:67">
@@ -50400,10 +50397,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BN233">
-        <v>32.32044198895027</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO233">
-        <v>94.35483870967741</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="234" spans="1:67">
@@ -50603,10 +50600,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN234">
-        <v>39.77900552486188</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO234">
-        <v>116.1290322580645</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="235" spans="1:67">
@@ -50803,10 +50800,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN235">
-        <v>43.64640883977901</v>
+        <v>31.21546961325967</v>
       </c>
       <c r="BO235">
-        <v>127.4193548387097</v>
+        <v>39.51612903225807</v>
       </c>
     </row>
     <row r="236" spans="1:67">
@@ -51006,10 +51003,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN236">
-        <v>35.91160220994475</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO236">
-        <v>104.8387096774193</v>
+        <v>-9.67741935483871</v>
       </c>
     </row>
     <row r="237" spans="1:67">
@@ -51209,10 +51206,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN237">
-        <v>38.39779005524861</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO237">
-        <v>112.0967741935484</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="238" spans="1:67">
@@ -51412,10 +51409,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN238">
-        <v>30.93922651933701</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO238">
-        <v>90.32258064516128</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="239" spans="1:67">
@@ -51615,10 +51612,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BN239">
-        <v>25.13812154696132</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO239">
-        <v>73.38709677419354</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="240" spans="1:67">
@@ -51818,10 +51815,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN240">
-        <v>43.92265193370166</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BO240">
-        <v>128.2258064516129</v>
+        <v>18.54838709677419</v>
       </c>
     </row>
     <row r="241" spans="1:67">
@@ -52021,10 +52018,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN241">
-        <v>43.0939226519337</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO241">
-        <v>125.8064516129032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:67">
@@ -52224,10 +52221,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN242">
-        <v>43.0939226519337</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BO242">
-        <v>125.8064516129032</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="243" spans="1:67">
@@ -52424,10 +52421,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BN243">
-        <v>26.79558011049724</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO243">
-        <v>78.2258064516129</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="244" spans="1:67">
@@ -52627,10 +52624,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN244">
-        <v>39.22651933701657</v>
+        <v>15.74585635359116</v>
       </c>
       <c r="BO244">
-        <v>114.516129032258</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="245" spans="1:67">
@@ -52830,10 +52827,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN245">
-        <v>37.01657458563536</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO245">
-        <v>108.0645161290323</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="246" spans="1:67">
@@ -53033,10 +53030,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN246">
-        <v>35.63535911602209</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO246">
-        <v>104.0322580645161</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="247" spans="1:67">
@@ -53236,10 +53233,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN247">
-        <v>25.96685082872928</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO247">
-        <v>75.80645161290323</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="248" spans="1:67">
@@ -53439,10 +53436,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BN248">
-        <v>21.54696132596685</v>
+        <v>0</v>
       </c>
       <c r="BO248">
-        <v>62.90322580645162</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="249" spans="1:67">
@@ -53642,10 +53639,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BN249">
-        <v>44.75138121546961</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO249">
-        <v>130.6451612903226</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="250" spans="1:67">
@@ -53845,10 +53842,10 @@
         <v>15.02242152466368</v>
       </c>
       <c r="BN250">
-        <v>55.52486187845304</v>
+        <v>28.45303867403315</v>
       </c>
       <c r="BO250">
-        <v>162.0967741935484</v>
+        <v>31.45161290322581</v>
       </c>
     </row>
     <row r="251" spans="1:67">
@@ -54048,10 +54045,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN251">
-        <v>41.98895027624309</v>
+        <v>21.54696132596685</v>
       </c>
       <c r="BO251">
-        <v>122.5806451612903</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="252" spans="1:67">
@@ -54251,10 +54248,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN252">
-        <v>41.98895027624309</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO252">
-        <v>122.5806451612903</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="253" spans="1:67">
@@ -54454,10 +54451,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BN253">
-        <v>20.99447513812154</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO253">
-        <v>61.29032258064515</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="254" spans="1:67">
@@ -54657,10 +54654,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BN254">
-        <v>38.67403314917127</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO254">
-        <v>112.9032258064516</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="255" spans="1:67">
@@ -54860,10 +54857,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN255">
-        <v>35.91160220994475</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BO255">
-        <v>104.8387096774193</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="256" spans="1:67">
@@ -55063,10 +55060,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN256">
-        <v>25.96685082872928</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO256">
-        <v>75.80645161290323</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="257" spans="1:67">
@@ -55263,10 +55260,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN257">
-        <v>29.2817679558011</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO257">
-        <v>85.48387096774192</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="258" spans="1:67">
@@ -55466,10 +55463,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN258">
-        <v>34.25414364640883</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO258">
-        <v>100</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="259" spans="1:67">
@@ -55669,10 +55666,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN259">
-        <v>43.64640883977901</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO259">
-        <v>127.4193548387097</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="260" spans="1:67">
@@ -55872,10 +55869,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BN260">
-        <v>43.37016574585635</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO260">
-        <v>126.6129032258064</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="261" spans="1:67">
@@ -56075,10 +56072,10 @@
         <v>16.96562032884903</v>
       </c>
       <c r="BN261">
-        <v>62.70718232044198</v>
+        <v>27.34806629834254</v>
       </c>
       <c r="BO261">
-        <v>183.0645161290323</v>
+        <v>34.6774193548387</v>
       </c>
     </row>
     <row r="262" spans="1:67">
@@ -56278,10 +56275,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN262">
-        <v>46.13259668508287</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO262">
-        <v>134.6774193548387</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="263" spans="1:67">
@@ -56478,10 +56475,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BN263">
-        <v>19.33701657458563</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO263">
-        <v>56.4516129032258</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="264" spans="1:67">
@@ -56681,10 +56678,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BN264">
-        <v>44.75138121546961</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO264">
-        <v>130.6451612903226</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="265" spans="1:67">
@@ -56884,10 +56881,10 @@
         <v>15.69506726457399</v>
       </c>
       <c r="BN265">
-        <v>58.0110497237569</v>
+        <v>22.09944751381216</v>
       </c>
       <c r="BO265">
-        <v>169.3548387096774</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="266" spans="1:67">
@@ -57087,10 +57084,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN266">
-        <v>30.66298342541436</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO266">
-        <v>89.51612903225806</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="267" spans="1:67">
@@ -57290,10 +57287,10 @@
         <v>12.55605381165919</v>
       </c>
       <c r="BN267">
-        <v>46.40883977900553</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO267">
-        <v>135.483870967742</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="268" spans="1:67">
@@ -57493,10 +57490,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN268">
-        <v>47.23756906077348</v>
+        <v>20.99447513812154</v>
       </c>
       <c r="BO268">
-        <v>137.9032258064516</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="269" spans="1:67">
@@ -57696,10 +57693,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BN269">
-        <v>23.20441988950276</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO269">
-        <v>67.74193548387098</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="270" spans="1:67">
@@ -57899,10 +57896,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN270">
-        <v>31.21546961325967</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO270">
-        <v>91.12903225806453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:67">
@@ -58102,10 +58099,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN271">
-        <v>31.76795580110497</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO271">
-        <v>92.74193548387096</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="272" spans="1:67">
@@ -58305,10 +58302,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN272">
-        <v>37.01657458563536</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO272">
-        <v>108.0645161290323</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="273" spans="1:67">
@@ -58508,10 +58505,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BN273">
-        <v>25.41436464088397</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO273">
-        <v>74.19354838709677</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="274" spans="1:67">
@@ -58711,10 +58708,10 @@
         <v>19.73094170403587</v>
       </c>
       <c r="BN274">
-        <v>72.9281767955801</v>
+        <v>19.06077348066298</v>
       </c>
       <c r="BO274">
-        <v>212.9032258064516</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="275" spans="1:67">
@@ -58914,10 +58911,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BN275">
-        <v>23.20441988950276</v>
+        <v>0</v>
       </c>
       <c r="BO275">
-        <v>67.74193548387098</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="276" spans="1:67">
@@ -59117,10 +59114,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN276">
-        <v>41.71270718232044</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO276">
-        <v>121.7741935483871</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="277" spans="1:67">
@@ -59320,10 +59317,10 @@
         <v>19.05829596412556</v>
       </c>
       <c r="BN277">
-        <v>70.44198895027624</v>
+        <v>26.79558011049724</v>
       </c>
       <c r="BO277">
-        <v>205.6451612903226</v>
+        <v>37.90322580645162</v>
       </c>
     </row>
     <row r="278" spans="1:67">
@@ -59520,10 +59517,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BN278">
-        <v>36.46408839779005</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO278">
-        <v>106.4516129032258</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="279" spans="1:67">
@@ -59723,10 +59720,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN279">
-        <v>43.0939226519337</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO279">
-        <v>125.8064516129032</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="280" spans="1:67">
@@ -59926,10 +59923,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BN280">
-        <v>27.34806629834254</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO280">
-        <v>79.83870967741935</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="281" spans="1:67">
@@ -60129,10 +60126,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN281">
-        <v>39.22651933701657</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BO281">
-        <v>114.516129032258</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="282" spans="1:67">
@@ -60332,10 +60329,10 @@
         <v>14.42451420029895</v>
       </c>
       <c r="BN282">
-        <v>53.31491712707182</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BO282">
-        <v>155.6451612903226</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="283" spans="1:67">
@@ -60532,10 +60529,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN283">
-        <v>35.91160220994475</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO283">
-        <v>104.8387096774193</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="284" spans="1:67">
@@ -60735,10 +60732,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BN284">
-        <v>30.11049723756906</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO284">
-        <v>87.90322580645162</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="285" spans="1:67">
@@ -60938,10 +60935,10 @@
         <v>14.64872944693572</v>
       </c>
       <c r="BN285">
-        <v>54.14364640883977</v>
+        <v>31.76795580110497</v>
       </c>
       <c r="BO285">
-        <v>158.0645161290323</v>
+        <v>42.74193548387096</v>
       </c>
     </row>
     <row r="286" spans="1:67">
@@ -61141,10 +61138,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN286">
-        <v>38.95027624309392</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO286">
-        <v>113.7096774193548</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="287" spans="1:67">
@@ -61341,10 +61338,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN287">
-        <v>27.07182320441989</v>
+        <v>0</v>
       </c>
       <c r="BO287">
-        <v>79.03225806451614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:67">
@@ -61544,10 +61541,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN288">
-        <v>37.84530386740331</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BO288">
-        <v>110.4838709677419</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="289" spans="1:67">
@@ -61747,10 +61744,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BN289">
-        <v>42.54143646408839</v>
+        <v>19.06077348066298</v>
       </c>
       <c r="BO289">
-        <v>124.1935483870968</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="290" spans="1:67">
@@ -61950,10 +61947,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BN290">
-        <v>44.75138121546961</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO290">
-        <v>130.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:67">
@@ -62153,10 +62150,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BN291">
-        <v>33.14917127071823</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO291">
-        <v>96.77419354838709</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="292" spans="1:67">
@@ -62356,10 +62353,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN292">
-        <v>37.56906077348066</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BO292">
-        <v>109.6774193548387</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="293" spans="1:67">
@@ -62559,10 +62556,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN293">
-        <v>34.80662983425414</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO293">
-        <v>101.6129032258064</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="294" spans="1:67">
@@ -62762,10 +62759,10 @@
         <v>12.55605381165919</v>
       </c>
       <c r="BN294">
-        <v>46.40883977900553</v>
+        <v>19.61325966850828</v>
       </c>
       <c r="BO294">
-        <v>135.483870967742</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="295" spans="1:67">
@@ -62965,10 +62962,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN295">
-        <v>33.70165745856353</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO295">
-        <v>98.38709677419354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:67">
@@ -63168,10 +63165,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN296">
-        <v>40.88397790055249</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO296">
-        <v>119.3548387096774</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="297" spans="1:67">
@@ -63371,10 +63368,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN297">
-        <v>39.50276243093923</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO297">
-        <v>115.3225806451613</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="298" spans="1:67">
@@ -63574,10 +63571,10 @@
         <v>15.69506726457399</v>
       </c>
       <c r="BN298">
-        <v>58.0110497237569</v>
+        <v>33.97790055248619</v>
       </c>
       <c r="BO298">
-        <v>169.3548387096774</v>
+        <v>50.80645161290322</v>
       </c>
     </row>
     <row r="299" spans="1:67">
@@ -63777,10 +63774,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN299">
-        <v>43.64640883977901</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO299">
-        <v>127.4193548387097</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="300" spans="1:67">
@@ -63980,10 +63977,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BN300">
-        <v>42.54143646408839</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO300">
-        <v>124.1935483870968</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="301" spans="1:67">
@@ -64183,10 +64180,10 @@
         <v>13.07922272047833</v>
       </c>
       <c r="BN301">
-        <v>48.34254143646409</v>
+        <v>20.44198895027624</v>
       </c>
       <c r="BO301">
-        <v>141.1290322580645</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="302" spans="1:67">
@@ -64386,10 +64383,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BN302">
-        <v>28.45303867403315</v>
+        <v>0</v>
       </c>
       <c r="BO302">
-        <v>83.06451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="303" spans="1:67">
@@ -64589,10 +64586,10 @@
         <v>19.13303437967115</v>
       </c>
       <c r="BN303">
-        <v>70.71823204419888</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO303">
-        <v>206.4516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:67">
@@ -64789,10 +64786,10 @@
         <v>13.45291479820628</v>
       </c>
       <c r="BN304">
-        <v>49.72375690607734</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO304">
-        <v>145.1612903225806</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="305" spans="1:67">
@@ -64992,10 +64989,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BN305">
-        <v>38.67403314917127</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO305">
-        <v>112.9032258064516</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="306" spans="1:67">
@@ -65195,10 +65192,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN306">
-        <v>33.97790055248619</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO306">
-        <v>99.19354838709677</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="307" spans="1:67">
@@ -65398,10 +65395,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN307">
-        <v>37.01657458563536</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO307">
-        <v>108.0645161290323</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="308" spans="1:67">
@@ -65601,10 +65598,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN308">
-        <v>30.66298342541436</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO308">
-        <v>89.51612903225806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:67">
@@ -65801,10 +65798,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BN309">
-        <v>33.42541436464088</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO309">
-        <v>97.58064516129032</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="310" spans="1:67">
@@ -66004,10 +66001,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN310">
-        <v>29.2817679558011</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO310">
-        <v>85.48387096774192</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="311" spans="1:67">
@@ -66207,10 +66204,10 @@
         <v>4.857997010463378</v>
       </c>
       <c r="BN311">
-        <v>17.95580110497237</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO311">
-        <v>52.41935483870967</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="312" spans="1:67">
@@ -66410,10 +66407,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BN312">
-        <v>29.83425414364641</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO312">
-        <v>87.09677419354838</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="313" spans="1:67">
@@ -66613,10 +66610,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN313">
-        <v>30.93922651933701</v>
+        <v>0</v>
       </c>
       <c r="BO313">
-        <v>90.32258064516128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:67">
@@ -66816,10 +66813,10 @@
         <v>13.3034379671151</v>
       </c>
       <c r="BN314">
-        <v>49.17127071823204</v>
+        <v>22.92817679558011</v>
       </c>
       <c r="BO314">
-        <v>143.5483870967742</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="315" spans="1:67">
@@ -67019,10 +67016,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN315">
-        <v>40.05524861878452</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO315">
-        <v>116.9354838709677</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="316" spans="1:67">
@@ -67222,10 +67219,10 @@
         <v>14.34977578475336</v>
       </c>
       <c r="BN316">
-        <v>53.03867403314917</v>
+        <v>25.69060773480663</v>
       </c>
       <c r="BO316">
-        <v>154.8387096774194</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="317" spans="1:67">
@@ -67425,10 +67422,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN317">
-        <v>43.0939226519337</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BO317">
-        <v>125.8064516129032</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="318" spans="1:67">
@@ -67628,10 +67625,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BN318">
-        <v>33.14917127071823</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO318">
-        <v>96.77419354838709</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="319" spans="1:67">
@@ -67831,10 +67828,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN319">
-        <v>26.51933701657459</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO319">
-        <v>77.41935483870968</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="320" spans="1:67">
@@ -68034,10 +68031,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN320">
-        <v>38.95027624309392</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO320">
-        <v>113.7096774193548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:67">
@@ -68234,10 +68231,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN321">
-        <v>35.35911602209944</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO321">
-        <v>103.2258064516129</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="322" spans="1:67">
@@ -68437,10 +68434,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BN322">
-        <v>35.08287292817679</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO322">
-        <v>102.4193548387097</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="323" spans="1:67">
@@ -68640,10 +68637,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BN323">
-        <v>45.02762430939226</v>
+        <v>22.09944751381216</v>
       </c>
       <c r="BO323">
-        <v>131.4516129032258</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324" spans="1:67">
@@ -68843,10 +68840,10 @@
         <v>21.97309417040358</v>
       </c>
       <c r="BN324">
-        <v>81.21546961325966</v>
+        <v>50.5524861878453</v>
       </c>
       <c r="BO324">
-        <v>237.0967741935484</v>
+        <v>68.54838709677419</v>
       </c>
     </row>
     <row r="325" spans="1:67">
@@ -69046,10 +69043,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN325">
-        <v>43.92265193370166</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO325">
-        <v>128.2258064516129</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="326" spans="1:67">
@@ -69249,10 +69246,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN326">
-        <v>29.2817679558011</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO326">
-        <v>85.48387096774192</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="327" spans="1:67">
@@ -69452,10 +69449,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN327">
-        <v>32.59668508287293</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO327">
-        <v>95.16129032258065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:67">
@@ -69655,10 +69652,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN328">
-        <v>37.56906077348066</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BO328">
-        <v>109.6774193548387</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="329" spans="1:67">
@@ -69858,10 +69855,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BN329">
-        <v>24.86187845303867</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO329">
-        <v>72.58064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="330" spans="1:67">
@@ -70061,10 +70058,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN330">
-        <v>38.39779005524861</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO330">
-        <v>112.0967741935484</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="331" spans="1:67">
@@ -70264,10 +70261,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN331">
-        <v>37.29281767955801</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO331">
-        <v>108.8709677419355</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="332" spans="1:67">
@@ -70467,10 +70464,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN332">
-        <v>37.01657458563536</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO332">
-        <v>108.0645161290323</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="333" spans="1:67">
@@ -70670,10 +70667,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN333">
-        <v>39.50276243093923</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO333">
-        <v>115.3225806451613</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="334" spans="1:67">
@@ -70873,10 +70870,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BN334">
-        <v>35.08287292817679</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO334">
-        <v>102.4193548387097</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="335" spans="1:67">
@@ -71076,10 +71073,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN335">
-        <v>29.2817679558011</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO335">
-        <v>85.48387096774192</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="336" spans="1:67">
@@ -71279,10 +71276,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN336">
-        <v>40.88397790055249</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO336">
-        <v>119.3548387096774</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="337" spans="1:67">
@@ -71479,10 +71476,10 @@
         <v>1.79372197309417</v>
       </c>
       <c r="BN337">
-        <v>6.629834254143646</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO337">
-        <v>19.35483870967742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:67">
@@ -71682,10 +71679,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN338">
-        <v>27.62430939226519</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO338">
-        <v>80.64516129032258</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="339" spans="1:67">
@@ -71885,10 +71882,10 @@
         <v>18.46038863976084</v>
       </c>
       <c r="BN339">
-        <v>68.23204419889503</v>
+        <v>23.20441988950276</v>
       </c>
       <c r="BO339">
-        <v>199.1935483870967</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="340" spans="1:67">
@@ -72085,10 +72082,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN340">
-        <v>27.62430939226519</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO340">
-        <v>80.64516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="341" spans="1:67">
@@ -72285,10 +72282,10 @@
         <v>6.053811659192824</v>
       </c>
       <c r="BN341">
-        <v>22.3756906077348</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO341">
-        <v>65.32258064516128</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="342" spans="1:67">
@@ -72488,10 +72485,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BN342">
-        <v>28.45303867403315</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO342">
-        <v>83.06451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="343" spans="1:67">
@@ -72688,10 +72685,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BN343">
-        <v>32.87292817679558</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO343">
-        <v>95.96774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="344" spans="1:67">
@@ -72891,10 +72888,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BN344">
-        <v>47.79005524861878</v>
+        <v>22.65193370165745</v>
       </c>
       <c r="BO344">
-        <v>139.5161290322581</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="345" spans="1:67">
@@ -73094,10 +73091,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN345">
-        <v>35.91160220994475</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO345">
-        <v>104.8387096774193</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="346" spans="1:67">
@@ -73297,10 +73294,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BN346">
-        <v>44.47513812154696</v>
+        <v>24.30939226519337</v>
       </c>
       <c r="BO346">
-        <v>129.8387096774194</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="347" spans="1:67">
@@ -73500,10 +73497,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN347">
-        <v>38.12154696132596</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO347">
-        <v>111.2903225806452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:67">
@@ -73703,10 +73700,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN348">
-        <v>39.22651933701657</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO348">
-        <v>114.516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="349" spans="1:67">
@@ -73906,10 +73903,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN349">
-        <v>28.17679558011049</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO349">
-        <v>82.25806451612902</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="350" spans="1:67">
@@ -74109,10 +74106,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BN350">
-        <v>32.04419889502762</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO350">
-        <v>93.54838709677419</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="351" spans="1:67">
@@ -74312,10 +74309,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN351">
-        <v>28.7292817679558</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO351">
-        <v>83.87096774193549</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="352" spans="1:67">
@@ -74515,10 +74512,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BN352">
-        <v>24.86187845303867</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO352">
-        <v>72.58064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="353" spans="1:67">
@@ -74715,10 +74712,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN353">
-        <v>26.24309392265193</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO353">
-        <v>76.61290322580645</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="354" spans="1:67">
@@ -74918,10 +74915,10 @@
         <v>-1.64424514200299</v>
       </c>
       <c r="BN354">
-        <v>-6.077348066298343</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO354">
-        <v>-17.74193548387097</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="355" spans="1:67">
@@ -75121,10 +75118,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN355">
-        <v>31.21546961325967</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO355">
-        <v>91.12903225806453</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="356" spans="1:67">
@@ -75321,10 +75318,10 @@
         <v>3.139013452914798</v>
       </c>
       <c r="BN356">
-        <v>11.60220994475138</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO356">
-        <v>33.87096774193549</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="357" spans="1:67">
@@ -75524,10 +75521,10 @@
         <v>12.85500747384155</v>
       </c>
       <c r="BN357">
-        <v>47.51381215469613</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BO357">
-        <v>138.7096774193548</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="358" spans="1:67">
@@ -75727,10 +75724,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BN358">
-        <v>34.53038674033149</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO358">
-        <v>100.8064516129032</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="359" spans="1:67">
@@ -75930,10 +75927,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN359">
-        <v>39.22651933701657</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO359">
-        <v>114.516129032258</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="360" spans="1:67">
@@ -76133,10 +76130,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN360">
-        <v>45.85635359116022</v>
+        <v>21.8232044198895</v>
       </c>
       <c r="BO360">
-        <v>133.8709677419355</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="361" spans="1:67">
@@ -76336,10 +76333,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BN361">
-        <v>32.32044198895027</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO361">
-        <v>94.35483870967741</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="362" spans="1:67">
@@ -76539,10 +76536,10 @@
         <v>14.20029895366218</v>
       </c>
       <c r="BN362">
-        <v>52.48618784530387</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO362">
-        <v>153.2258064516129</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="363" spans="1:67">
@@ -76742,10 +76739,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN363">
-        <v>29.55801104972375</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO363">
-        <v>86.29032258064515</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="364" spans="1:67">
@@ -76942,10 +76939,10 @@
         <v>1.71898355754858</v>
       </c>
       <c r="BN364">
-        <v>6.353591160220994</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO364">
-        <v>18.54838709677419</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="365" spans="1:67">
@@ -77142,10 +77139,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN365">
-        <v>28.7292817679558</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO365">
-        <v>83.87096774193549</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="366" spans="1:67">
@@ -77345,10 +77342,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN366">
-        <v>43.92265193370166</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BO366">
-        <v>128.2258064516129</v>
+        <v>20.96774193548387</v>
       </c>
     </row>
     <row r="367" spans="1:67">
@@ -77548,10 +77545,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN367">
-        <v>40.88397790055249</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO367">
-        <v>119.3548387096774</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="368" spans="1:67">
@@ -77751,10 +77748,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN368">
-        <v>39.22651933701657</v>
+        <v>15.74585635359116</v>
       </c>
       <c r="BO368">
-        <v>114.516129032258</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="369" spans="1:67">
@@ -77954,10 +77951,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN369">
-        <v>38.39779005524861</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BO369">
-        <v>112.0967741935484</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="370" spans="1:67">
@@ -78157,10 +78154,10 @@
         <v>16.3677130044843</v>
       </c>
       <c r="BN370">
-        <v>60.49723756906077</v>
+        <v>35.91160220994475</v>
       </c>
       <c r="BO370">
-        <v>176.6129032258064</v>
+        <v>33.87096774193549</v>
       </c>
     </row>
     <row r="371" spans="1:67">
@@ -78360,10 +78357,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN371">
-        <v>46.13259668508287</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BO371">
-        <v>134.6774193548387</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="372" spans="1:67">
@@ -78563,10 +78560,10 @@
         <v>14.27503736920777</v>
       </c>
       <c r="BN372">
-        <v>52.76243093922653</v>
+        <v>19.61325966850828</v>
       </c>
       <c r="BO372">
-        <v>154.0322580645161</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="373" spans="1:67">
@@ -78766,10 +78763,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN373">
-        <v>34.25414364640883</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO373">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:67">
@@ -78969,10 +78966,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BN374">
-        <v>41.43646408839778</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO374">
-        <v>120.9677419354839</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="375" spans="1:67">
@@ -79172,10 +79169,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN375">
-        <v>29.2817679558011</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO375">
-        <v>85.48387096774192</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="376" spans="1:67">
@@ -79351,10 +79348,7 @@
         <v>0</v>
       </c>
       <c r="BN376">
-        <v>0</v>
-      </c>
-      <c r="BO376">
-        <v>0</v>
+        <v>-20.44198895027624</v>
       </c>
     </row>
     <row r="377" spans="1:67">
@@ -79554,10 +79548,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN377">
-        <v>34.25414364640883</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO377">
-        <v>100</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="378" spans="1:67">
@@ -79757,10 +79751,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN378">
-        <v>37.29281767955801</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO378">
-        <v>108.8709677419355</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="379" spans="1:67">
@@ -79960,10 +79954,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN379">
-        <v>46.68508287292817</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO379">
-        <v>136.2903225806452</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="380" spans="1:67">
@@ -80160,10 +80154,10 @@
         <v>4.633781763826607</v>
       </c>
       <c r="BN380">
-        <v>17.12707182320442</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO380">
-        <v>50</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="381" spans="1:67">
@@ -80360,10 +80354,10 @@
         <v>3.064275037369208</v>
       </c>
       <c r="BN381">
-        <v>11.32596685082873</v>
+        <v>0</v>
       </c>
       <c r="BO381">
-        <v>33.06451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="382" spans="1:67">
@@ -80563,10 +80557,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BN382">
-        <v>43.37016574585635</v>
+        <v>20.99447513812154</v>
       </c>
       <c r="BO382">
-        <v>126.6129032258064</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="383" spans="1:67">
@@ -80766,10 +80760,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BN383">
-        <v>36.46408839779005</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO383">
-        <v>106.4516129032258</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="384" spans="1:67">
@@ -80966,10 +80960,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BN384">
-        <v>45.3038674033149</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO384">
-        <v>132.258064516129</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="385" spans="1:67">
@@ -81169,10 +81163,10 @@
         <v>3.288490284005979</v>
       </c>
       <c r="BN385">
-        <v>12.15469613259669</v>
+        <v>0</v>
       </c>
       <c r="BO385">
-        <v>35.48387096774194</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="386" spans="1:67">
@@ -81372,10 +81366,10 @@
         <v>5.605381165919282</v>
       </c>
       <c r="BN386">
-        <v>20.71823204419889</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO386">
-        <v>60.48387096774194</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="387" spans="1:67">
@@ -81575,10 +81569,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN387">
-        <v>34.25414364640883</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO387">
-        <v>100</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="388" spans="1:67">
@@ -81778,10 +81772,10 @@
         <v>2.690582959641255</v>
       </c>
       <c r="BN388">
-        <v>9.94475138121547</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO388">
-        <v>29.03225806451613</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="389" spans="1:67">
@@ -81981,10 +81975,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN389">
-        <v>43.92265193370166</v>
+        <v>15.74585635359116</v>
       </c>
       <c r="BO389">
-        <v>128.2258064516129</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="390" spans="1:67">
@@ -82184,10 +82178,10 @@
         <v>1.345291479820628</v>
       </c>
       <c r="BN390">
-        <v>4.972375690607735</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO390">
-        <v>14.51612903225807</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="391" spans="1:67">
@@ -82387,10 +82381,10 @@
         <v>4.484304932735426</v>
       </c>
       <c r="BN391">
-        <v>16.57458563535911</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO391">
-        <v>48.38709677419354</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="392" spans="1:67">
@@ -82590,10 +82584,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN392">
-        <v>46.13259668508287</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BO392">
-        <v>134.6774193548387</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="393" spans="1:67">
@@ -82793,10 +82787,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN393">
-        <v>32.59668508287293</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO393">
-        <v>95.16129032258065</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="394" spans="1:67">
@@ -82996,10 +82990,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN394">
-        <v>35.35911602209944</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO394">
-        <v>103.2258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="395" spans="1:67">
@@ -83199,10 +83193,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BN395">
-        <v>33.14917127071823</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO395">
-        <v>96.77419354838709</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="396" spans="1:67">
@@ -83402,10 +83396,10 @@
         <v>5.156950672645739</v>
       </c>
       <c r="BN396">
-        <v>19.06077348066298</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO396">
-        <v>55.64516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:67">
@@ -83605,10 +83599,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN397">
-        <v>47.23756906077348</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BO397">
-        <v>137.9032258064516</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="398" spans="1:67">
@@ -83808,10 +83802,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN398">
-        <v>40.88397790055249</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO398">
-        <v>119.3548387096774</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="399" spans="1:67">
@@ -84011,10 +84005,10 @@
         <v>17.63826606875934</v>
       </c>
       <c r="BN399">
-        <v>65.19337016574586</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO399">
-        <v>190.3225806451613</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="400" spans="1:67">
@@ -84211,10 +84205,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BN400">
-        <v>19.33701657458563</v>
+        <v>0</v>
       </c>
       <c r="BO400">
-        <v>56.4516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="401" spans="1:67">
@@ -84414,10 +84408,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN401">
-        <v>30.38674033149171</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO401">
-        <v>88.70967741935483</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="402" spans="1:67">
@@ -84614,10 +84608,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN402">
-        <v>37.56906077348066</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO402">
-        <v>109.6774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="403" spans="1:67">
@@ -84817,10 +84811,10 @@
         <v>13.82660687593423</v>
       </c>
       <c r="BN403">
-        <v>51.10497237569061</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BO403">
-        <v>149.1935483870968</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="404" spans="1:67">
@@ -85020,10 +85014,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BN404">
-        <v>20.99447513812154</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO404">
-        <v>61.29032258064515</v>
+        <v>-8.064516129032258</v>
       </c>
     </row>
     <row r="405" spans="1:67">
@@ -85220,10 +85214,10 @@
         <v>5.381165919282511</v>
       </c>
       <c r="BN405">
-        <v>19.88950276243094</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO405">
-        <v>58.06451612903226</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="406" spans="1:67">
@@ -85420,10 +85414,10 @@
         <v>6.95067264573991</v>
       </c>
       <c r="BN406">
-        <v>25.69060773480663</v>
+        <v>0</v>
       </c>
       <c r="BO406">
-        <v>75</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="407" spans="1:67">
@@ -85623,10 +85617,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN407">
-        <v>47.23756906077348</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO407">
-        <v>137.9032258064516</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="408" spans="1:67">
@@ -85826,10 +85820,10 @@
         <v>5.455904334828101</v>
       </c>
       <c r="BN408">
-        <v>20.16574585635359</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO408">
-        <v>58.87096774193547</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="409" spans="1:67">
@@ -86029,10 +86023,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN409">
-        <v>33.97790055248619</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BO409">
-        <v>99.19354838709677</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="410" spans="1:67">
@@ -86232,10 +86226,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BN410">
-        <v>36.74033149171271</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO410">
-        <v>107.258064516129</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="411" spans="1:67">
@@ -86435,10 +86429,10 @@
         <v>5.979073243647234</v>
       </c>
       <c r="BN411">
-        <v>22.09944751381216</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO411">
-        <v>64.51612903225806</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="412" spans="1:67">
@@ -86638,10 +86632,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN412">
-        <v>34.25414364640883</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO412">
-        <v>100</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="413" spans="1:67">
@@ -86841,10 +86835,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BN413">
-        <v>45.3038674033149</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO413">
-        <v>132.258064516129</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="414" spans="1:67">
@@ -87044,10 +87038,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN414">
-        <v>26.51933701657459</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO414">
-        <v>77.41935483870968</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="415" spans="1:67">
@@ -87247,10 +87241,10 @@
         <v>5.156950672645739</v>
       </c>
       <c r="BN415">
-        <v>19.06077348066298</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO415">
-        <v>55.64516129032258</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="416" spans="1:67">
@@ -87450,10 +87444,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BN416">
-        <v>23.20441988950276</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO416">
-        <v>67.74193548387098</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="417" spans="1:67">
@@ -87653,10 +87647,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BN417">
-        <v>23.20441988950276</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO417">
-        <v>67.74193548387098</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="418" spans="1:67">
@@ -87856,10 +87850,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BN418">
-        <v>29.00552486187845</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO418">
-        <v>84.67741935483872</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="419" spans="1:67">
@@ -88059,10 +88053,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN419">
-        <v>43.64640883977901</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BO419">
-        <v>127.4193548387097</v>
+        <v>20.96774193548387</v>
       </c>
     </row>
     <row r="420" spans="1:67">
@@ -88262,10 +88256,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BN420">
-        <v>23.48066298342541</v>
+        <v>-2.209944751381215</v>
       </c>
       <c r="BO420">
-        <v>68.54838709677419</v>
+        <v>-8.064516129032258</v>
       </c>
     </row>
     <row r="421" spans="1:67">
@@ -88465,10 +88459,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BN421">
-        <v>32.32044198895027</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO421">
-        <v>94.35483870967741</v>
+        <v>-11.29032258064516</v>
       </c>
     </row>
     <row r="422" spans="1:67">
@@ -88665,10 +88659,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BN422">
-        <v>36.46408839779005</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO422">
-        <v>106.4516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:67">
@@ -88868,10 +88862,10 @@
         <v>6.053811659192824</v>
       </c>
       <c r="BN423">
-        <v>22.3756906077348</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO423">
-        <v>65.32258064516128</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="424" spans="1:67">
@@ -89071,10 +89065,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN424">
-        <v>30.66298342541436</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO424">
-        <v>89.51612903225806</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="425" spans="1:67">
@@ -89274,10 +89268,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN425">
-        <v>24.30939226519337</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO425">
-        <v>70.96774193548387</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="426" spans="1:67">
@@ -89477,10 +89471,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BN426">
-        <v>25.41436464088397</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO426">
-        <v>74.19354838709677</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="427" spans="1:67">
@@ -89680,10 +89674,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN427">
-        <v>26.24309392265193</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO427">
-        <v>76.61290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:67">
@@ -89883,10 +89877,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN428">
-        <v>28.17679558011049</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO428">
-        <v>82.25806451612902</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="429" spans="1:67">
@@ -90086,10 +90080,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN429">
-        <v>41.71270718232044</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO429">
-        <v>121.7741935483871</v>
+        <v>-8.870967741935484</v>
       </c>
     </row>
     <row r="430" spans="1:67">
@@ -90286,10 +90280,10 @@
         <v>5.979073243647234</v>
       </c>
       <c r="BN430">
-        <v>22.09944751381216</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO430">
-        <v>64.51612903225806</v>
+        <v>-9.67741935483871</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/1996/Master_1996.xlsx
+++ b/Resources/1996/Master_1996.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="496">
   <si>
     <t>PID</t>
   </si>
@@ -208,16 +208,10 @@
     <t>2ndRK</t>
   </si>
   <si>
-    <t>BPercentile_x</t>
-  </si>
-  <si>
-    <t>APercentile_x</t>
-  </si>
-  <si>
-    <t>BPercentile_y</t>
-  </si>
-  <si>
-    <t>APercentile_y</t>
+    <t>BPercentile</t>
+  </si>
+  <si>
+    <t>APercentile</t>
   </si>
   <si>
     <t>abdulma02</t>
@@ -1865,13 +1859,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ202"/>
+  <dimension ref="A1:BO202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:67">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2070,31 +2064,25 @@
       <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:67">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E2">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G2">
         <v>2600000</v>
@@ -2274,36 +2262,30 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>138.4</v>
+        <v>58.1094527363184</v>
       </c>
       <c r="BO2">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="BP2">
-        <v>58.1094527363184</v>
-      </c>
-      <c r="BQ2">
         <v>79.40298507462687</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:67">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E3">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G3">
         <v>350000</v>
@@ -2483,27 +2465,21 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>172</v>
+        <v>49.0547263681592</v>
       </c>
       <c r="BO3">
-        <v>274.4</v>
-      </c>
-      <c r="BP3">
-        <v>49.0547263681592</v>
-      </c>
-      <c r="BQ3">
         <v>25.17412935323383</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:67">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -2512,7 +2488,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G4">
         <v>200000</v>
@@ -2689,36 +2665,30 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>295.2</v>
+        <v>40.19900497512437</v>
       </c>
       <c r="BO4">
-        <v>374.4</v>
-      </c>
-      <c r="BP4">
-        <v>40.19900497512437</v>
-      </c>
-      <c r="BQ4">
         <v>9.054726368159203</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:67">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E5">
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G5">
         <v>3200000</v>
@@ -2898,36 +2868,30 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>67.40000000000001</v>
+        <v>80.79601990049751</v>
       </c>
       <c r="BO5">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="BP5">
-        <v>80.79601990049751</v>
-      </c>
-      <c r="BQ5">
         <v>80.39800995024875</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:67">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E6">
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G6">
         <v>2400000</v>
@@ -3107,36 +3071,30 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>172.2</v>
+        <v>50.44776119402985</v>
       </c>
       <c r="BO6">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="BP6">
-        <v>50.44776119402985</v>
-      </c>
-      <c r="BQ6">
         <v>79.80099502487562</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:67">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E7">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G7">
         <v>550000</v>
@@ -3316,36 +3274,30 @@
         <v>0</v>
       </c>
       <c r="BN7">
-        <v>159.6</v>
+        <v>53.13432835820895</v>
       </c>
       <c r="BO7">
-        <v>210</v>
-      </c>
-      <c r="BP7">
-        <v>53.13432835820895</v>
-      </c>
-      <c r="BQ7">
         <v>46.26865671641791</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:67">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E8">
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G8">
         <v>2160000</v>
@@ -3525,27 +3477,21 @@
         <v>0</v>
       </c>
       <c r="BN8">
-        <v>122.4</v>
+        <v>64.37810945273633</v>
       </c>
       <c r="BO8">
-        <v>118.8</v>
-      </c>
-      <c r="BP8">
-        <v>64.37810945273633</v>
-      </c>
-      <c r="BQ8">
         <v>72.23880597014924</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:67">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -3554,7 +3500,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G9">
         <v>3765000</v>
@@ -3734,36 +3680,30 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>69.8</v>
+        <v>78.90547263681592</v>
       </c>
       <c r="BO9">
-        <v>113</v>
-      </c>
-      <c r="BP9">
-        <v>78.90547263681592</v>
-      </c>
-      <c r="BQ9">
         <v>71.84079601990049</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:67">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E10">
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G10">
         <v>3300000</v>
@@ -3943,36 +3883,30 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>183.4</v>
+        <v>46.46766169154229</v>
       </c>
       <c r="BO10">
-        <v>118.8</v>
-      </c>
-      <c r="BP10">
-        <v>46.46766169154229</v>
-      </c>
-      <c r="BQ10">
         <v>71.84079601990049</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:67">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E11">
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G11">
         <v>833000</v>
@@ -4152,36 +4086,30 @@
         <v>1</v>
       </c>
       <c r="BN11">
-        <v>156.8</v>
+        <v>55.22388059701493</v>
       </c>
       <c r="BO11">
-        <v>106.2</v>
-      </c>
-      <c r="BP11">
-        <v>55.22388059701493</v>
-      </c>
-      <c r="BQ11">
         <v>75.02487562189056</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:67">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E12">
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G12">
         <v>275000</v>
@@ -4361,36 +4289,30 @@
         <v>0</v>
       </c>
       <c r="BN12">
-        <v>271.6</v>
+        <v>23.28358208955224</v>
       </c>
       <c r="BO12">
-        <v>149</v>
-      </c>
-      <c r="BP12">
-        <v>23.28358208955224</v>
-      </c>
-      <c r="BQ12">
         <v>62.88557213930348</v>
       </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:67">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E13">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G13">
         <v>480000</v>
@@ -4570,36 +4492,30 @@
         <v>0</v>
       </c>
       <c r="BN13">
-        <v>233.6</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="BO13">
-        <v>220.4</v>
-      </c>
-      <c r="BP13">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="BQ13">
         <v>42.28855721393035</v>
       </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:67">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E14">
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G14">
         <v>1200000</v>
@@ -4779,36 +4695,30 @@
         <v>0</v>
       </c>
       <c r="BN14">
-        <v>176.6</v>
+        <v>48.05970149253731</v>
       </c>
       <c r="BO14">
-        <v>209.8</v>
-      </c>
-      <c r="BP14">
-        <v>48.05970149253731</v>
-      </c>
-      <c r="BQ14">
         <v>43.98009950248756</v>
       </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:67">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E15">
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G15">
         <v>2500000</v>
@@ -4988,27 +4898,21 @@
         <v>0</v>
       </c>
       <c r="BN15">
-        <v>98.2</v>
+        <v>75.22388059701493</v>
       </c>
       <c r="BO15">
-        <v>84.8</v>
-      </c>
-      <c r="BP15">
-        <v>75.22388059701493</v>
-      </c>
-      <c r="BQ15">
         <v>82.18905472636816</v>
       </c>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:67">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -5017,7 +4921,7 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G16">
         <v>1040000</v>
@@ -5197,36 +5101,30 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>232</v>
+        <v>31.24378109452736</v>
       </c>
       <c r="BO16">
-        <v>284</v>
-      </c>
-      <c r="BP16">
-        <v>31.24378109452736</v>
-      </c>
-      <c r="BQ16">
         <v>23.98009950248757</v>
       </c>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:67">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E17">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G17">
         <v>370000</v>
@@ -5406,36 +5304,30 @@
         <v>0</v>
       </c>
       <c r="BN17">
-        <v>265.6</v>
+        <v>24.17910447761194</v>
       </c>
       <c r="BO17">
-        <v>296.2</v>
-      </c>
-      <c r="BP17">
-        <v>24.17910447761194</v>
-      </c>
-      <c r="BQ17">
         <v>23.88059701492537</v>
       </c>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:67">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E18">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G18">
         <v>1155000</v>
@@ -5615,36 +5507,30 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>78.8</v>
+        <v>76.31840796019901</v>
       </c>
       <c r="BO18">
-        <v>23.8</v>
-      </c>
-      <c r="BP18">
-        <v>76.31840796019901</v>
-      </c>
-      <c r="BQ18">
         <v>96.01990049751244</v>
       </c>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:67">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E19">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G19">
         <v>225000</v>
@@ -5824,36 +5710,30 @@
         <v>0</v>
       </c>
       <c r="BN19">
-        <v>341</v>
+        <v>8.756218905472638</v>
       </c>
       <c r="BO19">
-        <v>375.8</v>
-      </c>
-      <c r="BP19">
-        <v>8.756218905472638</v>
-      </c>
-      <c r="BQ19">
         <v>8.059701492537313</v>
       </c>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:67">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E20">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G20">
         <v>750000</v>
@@ -6033,27 +5913,21 @@
         <v>0</v>
       </c>
       <c r="BN20">
-        <v>287</v>
+        <v>21.09452736318408</v>
       </c>
       <c r="BO20">
-        <v>166.2</v>
-      </c>
-      <c r="BP20">
-        <v>21.09452736318408</v>
-      </c>
-      <c r="BQ20">
         <v>61.69154228855721</v>
       </c>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:67">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
@@ -6062,7 +5936,7 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G21">
         <v>425000</v>
@@ -6242,36 +6116,30 @@
         <v>0</v>
       </c>
       <c r="BN21">
-        <v>168.8</v>
+        <v>51.8407960199005</v>
       </c>
       <c r="BO21">
-        <v>184.4</v>
-      </c>
-      <c r="BP21">
-        <v>51.8407960199005</v>
-      </c>
-      <c r="BQ21">
         <v>52.63681592039801</v>
       </c>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:67">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E22">
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G22">
         <v>3000000</v>
@@ -6451,36 +6319,30 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>167</v>
+        <v>49.65174129353234</v>
       </c>
       <c r="BO22">
-        <v>198</v>
-      </c>
-      <c r="BP22">
-        <v>49.65174129353234</v>
-      </c>
-      <c r="BQ22">
         <v>46.66666666666666</v>
       </c>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:67">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E23">
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G23">
         <v>960000</v>
@@ -6660,27 +6522,21 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <v>91.40000000000001</v>
+        <v>72.43781094527363</v>
       </c>
       <c r="BO23">
-        <v>220.2</v>
-      </c>
-      <c r="BP23">
-        <v>72.43781094527363</v>
-      </c>
-      <c r="BQ23">
         <v>41.89054726368159</v>
       </c>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:67">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -6689,7 +6545,7 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G24">
         <v>1000000</v>
@@ -6869,36 +6725,30 @@
         <v>0</v>
       </c>
       <c r="BN24">
-        <v>219.8</v>
+        <v>40.49751243781095</v>
       </c>
       <c r="BO24">
-        <v>204</v>
-      </c>
-      <c r="BP24">
-        <v>40.49751243781095</v>
-      </c>
-      <c r="BQ24">
         <v>50.0497512437811</v>
       </c>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:67">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E25">
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G25">
         <v>2126000</v>
@@ -7078,27 +6928,21 @@
         <v>0</v>
       </c>
       <c r="BN25">
-        <v>136.6</v>
+        <v>59.50248756218905</v>
       </c>
       <c r="BO25">
-        <v>158.4</v>
-      </c>
-      <c r="BP25">
-        <v>59.50248756218905</v>
-      </c>
-      <c r="BQ25">
         <v>61.99004975124378</v>
       </c>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:67">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
@@ -7107,7 +6951,7 @@
         <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G26">
         <v>2200000</v>
@@ -7287,36 +7131,30 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>70.59999999999999</v>
+        <v>80.19900497512438</v>
       </c>
       <c r="BO26">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="BP26">
-        <v>80.19900497512438</v>
-      </c>
-      <c r="BQ26">
         <v>80.8955223880597</v>
       </c>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:67">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E27">
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G27">
         <v>2525000</v>
@@ -7496,36 +7334,30 @@
         <v>0</v>
       </c>
       <c r="BN27">
-        <v>209</v>
+        <v>39.00497512437811</v>
       </c>
       <c r="BO27">
-        <v>252</v>
-      </c>
-      <c r="BP27">
-        <v>39.00497512437811</v>
-      </c>
-      <c r="BQ27">
         <v>33.23383084577114</v>
       </c>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:67">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E28">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G28">
         <v>1040000</v>
@@ -7705,36 +7537,30 @@
         <v>0</v>
       </c>
       <c r="BN28">
-        <v>146.2</v>
+        <v>59.60199004975124</v>
       </c>
       <c r="BO28">
-        <v>96.2</v>
-      </c>
-      <c r="BP28">
-        <v>59.60199004975124</v>
-      </c>
-      <c r="BQ28">
         <v>76.31840796019901</v>
       </c>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:67">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E29">
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G29">
         <v>1830000</v>
@@ -7914,36 +7740,30 @@
         <v>0</v>
       </c>
       <c r="BN29">
-        <v>232.6</v>
+        <v>34.22885572139303</v>
       </c>
       <c r="BO29">
-        <v>321.4</v>
-      </c>
-      <c r="BP29">
-        <v>34.22885572139303</v>
-      </c>
-      <c r="BQ29">
         <v>15.4228855721393</v>
       </c>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:67">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E30">
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G30">
         <v>2245000</v>
@@ -8123,36 +7943,30 @@
         <v>0</v>
       </c>
       <c r="BN30">
-        <v>108.4</v>
+        <v>70.44776119402985</v>
       </c>
       <c r="BO30">
-        <v>28.8</v>
-      </c>
-      <c r="BP30">
-        <v>70.44776119402985</v>
-      </c>
-      <c r="BQ30">
         <v>94.72636815920397</v>
       </c>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:67">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E31">
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G31">
         <v>2004000</v>
@@ -8332,36 +8146,30 @@
         <v>0</v>
       </c>
       <c r="BN31">
-        <v>154.2</v>
+        <v>53.6318407960199</v>
       </c>
       <c r="BO31">
-        <v>160.2</v>
-      </c>
-      <c r="BP31">
-        <v>53.6318407960199</v>
-      </c>
-      <c r="BQ31">
         <v>57.91044776119403</v>
       </c>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:67">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E32">
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G32">
         <v>350000</v>
@@ -8541,27 +8349,21 @@
         <v>0</v>
       </c>
       <c r="BN32">
-        <v>128</v>
+        <v>63.98009950248756</v>
       </c>
       <c r="BO32">
-        <v>110.4</v>
-      </c>
-      <c r="BP32">
-        <v>63.98009950248756</v>
-      </c>
-      <c r="BQ32">
         <v>74.42786069651741</v>
       </c>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:67">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -8570,7 +8372,7 @@
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G33">
         <v>5476000</v>
@@ -8750,36 +8552,30 @@
         <v>0</v>
       </c>
       <c r="BN33">
-        <v>128.6</v>
+        <v>62.18905472636816</v>
       </c>
       <c r="BO33">
-        <v>275.6</v>
-      </c>
-      <c r="BP33">
-        <v>62.18905472636816</v>
-      </c>
-      <c r="BQ33">
         <v>29.15422885572139</v>
       </c>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:67">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E34">
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G34">
         <v>1165000</v>
@@ -8959,36 +8755,30 @@
         <v>0</v>
       </c>
       <c r="BN34">
-        <v>279.4</v>
+        <v>21.59203980099502</v>
       </c>
       <c r="BO34">
-        <v>262.2</v>
-      </c>
-      <c r="BP34">
-        <v>21.59203980099502</v>
-      </c>
-      <c r="BQ34">
         <v>33.93034825870647</v>
       </c>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:67">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E35">
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G35">
         <v>350000</v>
@@ -9168,27 +8958,21 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>297.6</v>
+        <v>19.50248756218906</v>
       </c>
       <c r="BO35">
-        <v>211.2</v>
-      </c>
-      <c r="BP35">
-        <v>19.50248756218906</v>
-      </c>
-      <c r="BQ35">
         <v>48.35820895522388</v>
       </c>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:67">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -9197,7 +8981,7 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G36">
         <v>650000</v>
@@ -9377,36 +9161,30 @@
         <v>0</v>
       </c>
       <c r="BN36">
-        <v>170.4</v>
+        <v>50.24875621890548</v>
       </c>
       <c r="BO36">
-        <v>219.4</v>
-      </c>
-      <c r="BP36">
-        <v>50.24875621890548</v>
-      </c>
-      <c r="BQ36">
         <v>42.08955223880596</v>
       </c>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:67">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D37" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E37">
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G37">
         <v>1455000</v>
@@ -9586,36 +9364,30 @@
         <v>0</v>
       </c>
       <c r="BN37">
-        <v>167.8</v>
+        <v>50.64676616915422</v>
       </c>
       <c r="BO37">
-        <v>113.2</v>
-      </c>
-      <c r="BP37">
-        <v>50.64676616915422</v>
-      </c>
-      <c r="BQ37">
         <v>72.63681592039801</v>
       </c>
     </row>
-    <row r="38" spans="1:69">
+    <row r="38" spans="1:67">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D38" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E38">
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G38">
         <v>1184000</v>
@@ -9792,27 +9564,21 @@
         <v>0</v>
       </c>
       <c r="BN38">
-        <v>287.4</v>
+        <v>45.77114427860697</v>
       </c>
       <c r="BO38">
-        <v>370.8</v>
-      </c>
-      <c r="BP38">
-        <v>45.77114427860697</v>
-      </c>
-      <c r="BQ38">
         <v>9.154228855721392</v>
       </c>
     </row>
-    <row r="39" spans="1:69">
+    <row r="39" spans="1:67">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
@@ -9821,7 +9587,7 @@
         <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G39">
         <v>800000</v>
@@ -10001,27 +9767,21 @@
         <v>0</v>
       </c>
       <c r="BN39">
-        <v>189.2</v>
+        <v>48.05970149253731</v>
       </c>
       <c r="BO39">
-        <v>155.6</v>
-      </c>
-      <c r="BP39">
-        <v>48.05970149253731</v>
-      </c>
-      <c r="BQ39">
         <v>61.99004975124378</v>
       </c>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:67">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -10030,7 +9790,7 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G40">
         <v>4050000</v>
@@ -10207,36 +9967,30 @@
         <v>0</v>
       </c>
       <c r="BN40">
-        <v>214.6</v>
+        <v>61.29353233830845</v>
       </c>
       <c r="BO40">
-        <v>155.8</v>
-      </c>
-      <c r="BP40">
-        <v>61.29353233830845</v>
-      </c>
-      <c r="BQ40">
         <v>62.38805970149254</v>
       </c>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:67">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D41" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E41">
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G41">
         <v>1116000</v>
@@ -10416,27 +10170,21 @@
         <v>0</v>
       </c>
       <c r="BN41">
-        <v>265.2</v>
+        <v>27.2636815920398</v>
       </c>
       <c r="BO41">
-        <v>109.8</v>
-      </c>
-      <c r="BP41">
-        <v>27.2636815920398</v>
-      </c>
-      <c r="BQ41">
         <v>73.03482587064677</v>
       </c>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:67">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -10445,7 +10193,7 @@
         <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G42">
         <v>1920000</v>
@@ -10622,36 +10370,30 @@
         <v>0</v>
       </c>
       <c r="BN42">
-        <v>307.4</v>
+        <v>37.71144278606965</v>
       </c>
       <c r="BO42">
-        <v>314</v>
-      </c>
-      <c r="BP42">
-        <v>37.71144278606965</v>
-      </c>
-      <c r="BQ42">
         <v>19.50248756218906</v>
       </c>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:67">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D43" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E43">
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G43">
         <v>1680000</v>
@@ -10831,36 +10573,30 @@
         <v>0</v>
       </c>
       <c r="BN43">
-        <v>169.2</v>
+        <v>48.15920398009951</v>
       </c>
       <c r="BO43">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="BP43">
-        <v>48.15920398009951</v>
-      </c>
-      <c r="BQ43">
         <v>81.19402985074626</v>
       </c>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:67">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E44">
         <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G44">
         <v>1747000</v>
@@ -11040,36 +10776,30 @@
         <v>0</v>
       </c>
       <c r="BN44">
-        <v>152.8</v>
+        <v>57.11442786069652</v>
       </c>
       <c r="BO44">
-        <v>106.2</v>
-      </c>
-      <c r="BP44">
-        <v>57.11442786069652</v>
-      </c>
-      <c r="BQ44">
         <v>75.82089552238807</v>
       </c>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:67">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E45">
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G45">
         <v>2200000</v>
@@ -11249,36 +10979,30 @@
         <v>0</v>
       </c>
       <c r="BN45">
-        <v>77.59999999999999</v>
+        <v>76.91542288557214</v>
       </c>
       <c r="BO45">
-        <v>104.2</v>
-      </c>
-      <c r="BP45">
-        <v>76.91542288557214</v>
-      </c>
-      <c r="BQ45">
         <v>75.12437810945273</v>
       </c>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:67">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E46">
         <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G46">
         <v>3333000</v>
@@ -11458,36 +11182,30 @@
         <v>0</v>
       </c>
       <c r="BN46">
-        <v>64</v>
+        <v>80.29850746268657</v>
       </c>
       <c r="BO46">
-        <v>96.8</v>
-      </c>
-      <c r="BP46">
-        <v>80.29850746268657</v>
-      </c>
-      <c r="BQ46">
         <v>78.70646766169153</v>
       </c>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:67">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E47">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G47">
         <v>3800000</v>
@@ -11667,27 +11385,21 @@
         <v>0</v>
       </c>
       <c r="BN47">
-        <v>180</v>
+        <v>49.55223880597014</v>
       </c>
       <c r="BO47">
-        <v>250.6</v>
-      </c>
-      <c r="BP47">
-        <v>49.55223880597014</v>
-      </c>
-      <c r="BQ47">
         <v>33.43283582089553</v>
       </c>
     </row>
-    <row r="48" spans="1:69">
+    <row r="48" spans="1:67">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
@@ -11696,7 +11408,7 @@
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G48">
         <v>225000</v>
@@ -11876,36 +11588,30 @@
         <v>0</v>
       </c>
       <c r="BN48">
-        <v>196.6</v>
+        <v>40.69651741293532</v>
       </c>
       <c r="BO48">
-        <v>295.8</v>
-      </c>
-      <c r="BP48">
-        <v>40.69651741293532</v>
-      </c>
-      <c r="BQ48">
         <v>24.17910447761194</v>
       </c>
     </row>
-    <row r="49" spans="1:69">
+    <row r="49" spans="1:67">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E49">
         <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G49">
         <v>910000</v>
@@ -12085,36 +11791,30 @@
         <v>0</v>
       </c>
       <c r="BN49">
-        <v>219.2</v>
+        <v>38.00995024875622</v>
       </c>
       <c r="BO49">
-        <v>219.2</v>
-      </c>
-      <c r="BP49">
-        <v>38.00995024875622</v>
-      </c>
-      <c r="BQ49">
         <v>44.77611940298507</v>
       </c>
     </row>
-    <row r="50" spans="1:69">
+    <row r="50" spans="1:67">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D50" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E50">
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G50">
         <v>1040000</v>
@@ -12294,36 +11994,30 @@
         <v>0</v>
       </c>
       <c r="BN50">
-        <v>201.6</v>
+        <v>36.91542288557214</v>
       </c>
       <c r="BO50">
-        <v>260</v>
-      </c>
-      <c r="BP50">
-        <v>36.91542288557214</v>
-      </c>
-      <c r="BQ50">
         <v>34.42786069651741</v>
       </c>
     </row>
-    <row r="51" spans="1:69">
+    <row r="51" spans="1:67">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D51" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E51">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G51">
         <v>210000</v>
@@ -12503,36 +12197,30 @@
         <v>1</v>
       </c>
       <c r="BN51">
-        <v>173</v>
+        <v>50.74626865671642</v>
       </c>
       <c r="BO51">
-        <v>258.8</v>
-      </c>
-      <c r="BP51">
-        <v>50.74626865671642</v>
-      </c>
-      <c r="BQ51">
         <v>33.23383084577114</v>
       </c>
     </row>
-    <row r="52" spans="1:69">
+    <row r="52" spans="1:67">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D52" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E52">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G52">
         <v>1920000</v>
@@ -12712,36 +12400,30 @@
         <v>0</v>
       </c>
       <c r="BN52">
-        <v>158</v>
+        <v>54.82587064676617</v>
       </c>
       <c r="BO52">
-        <v>288.6</v>
-      </c>
-      <c r="BP52">
-        <v>54.82587064676617</v>
-      </c>
-      <c r="BQ52">
         <v>26.26865671641791</v>
       </c>
     </row>
-    <row r="53" spans="1:69">
+    <row r="53" spans="1:67">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D53" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E53">
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G53">
         <v>1855000</v>
@@ -12921,36 +12603,30 @@
         <v>0</v>
       </c>
       <c r="BN53">
-        <v>192.8</v>
+        <v>44.27860696517413</v>
       </c>
       <c r="BO53">
-        <v>188.4</v>
-      </c>
-      <c r="BP53">
-        <v>44.27860696517413</v>
-      </c>
-      <c r="BQ53">
         <v>49.45273631840796</v>
       </c>
     </row>
-    <row r="54" spans="1:69">
+    <row r="54" spans="1:67">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D54" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E54">
         <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G54">
         <v>1450000</v>
@@ -13130,36 +12806,30 @@
         <v>0</v>
       </c>
       <c r="BN54">
-        <v>141.8</v>
+        <v>57.11442786069652</v>
       </c>
       <c r="BO54">
-        <v>138.4</v>
-      </c>
-      <c r="BP54">
-        <v>57.11442786069652</v>
-      </c>
-      <c r="BQ54">
         <v>66.16915422885572</v>
       </c>
     </row>
-    <row r="55" spans="1:69">
+    <row r="55" spans="1:67">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D55" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E55">
         <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G55">
         <v>5333000</v>
@@ -13339,36 +13009,30 @@
         <v>0</v>
       </c>
       <c r="BN55">
-        <v>104.8</v>
+        <v>70.74626865671641</v>
       </c>
       <c r="BO55">
-        <v>66.2</v>
-      </c>
-      <c r="BP55">
-        <v>70.74626865671641</v>
-      </c>
-      <c r="BQ55">
         <v>86.06965174129353</v>
       </c>
     </row>
-    <row r="56" spans="1:69">
+    <row r="56" spans="1:67">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D56" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E56">
         <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G56">
         <v>1310000</v>
@@ -13548,36 +13212,30 @@
         <v>0</v>
       </c>
       <c r="BN56">
-        <v>183.6</v>
+        <v>47.96019900497513</v>
       </c>
       <c r="BO56">
-        <v>120.2</v>
-      </c>
-      <c r="BP56">
-        <v>47.96019900497513</v>
-      </c>
-      <c r="BQ56">
         <v>71.34328358208955</v>
       </c>
     </row>
-    <row r="57" spans="1:69">
+    <row r="57" spans="1:67">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D57" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E57">
         <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G57">
         <v>3039000</v>
@@ -13757,36 +13415,30 @@
         <v>0</v>
       </c>
       <c r="BN57">
-        <v>123.4</v>
+        <v>64.07960199004977</v>
       </c>
       <c r="BO57">
-        <v>266.4</v>
-      </c>
-      <c r="BP57">
-        <v>64.07960199004977</v>
-      </c>
-      <c r="BQ57">
         <v>29.55223880597015</v>
       </c>
     </row>
-    <row r="58" spans="1:69">
+    <row r="58" spans="1:67">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D58" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E58">
         <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G58">
         <v>1430000</v>
@@ -13963,36 +13615,30 @@
         <v>0</v>
       </c>
       <c r="BN58">
-        <v>222.8</v>
+        <v>60</v>
       </c>
       <c r="BO58">
-        <v>232.2</v>
-      </c>
-      <c r="BP58">
-        <v>60</v>
-      </c>
-      <c r="BQ58">
         <v>38.40796019900498</v>
       </c>
     </row>
-    <row r="59" spans="1:69">
+    <row r="59" spans="1:67">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D59" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E59">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G59">
         <v>845000</v>
@@ -14172,27 +13818,21 @@
         <v>0</v>
       </c>
       <c r="BN59">
-        <v>303.4</v>
+        <v>12.83582089552239</v>
       </c>
       <c r="BO59">
-        <v>239</v>
-      </c>
-      <c r="BP59">
-        <v>12.83582089552239</v>
-      </c>
-      <c r="BQ59">
         <v>35.42288557213931</v>
       </c>
     </row>
-    <row r="60" spans="1:69">
+    <row r="60" spans="1:67">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
@@ -14201,7 +13841,7 @@
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G60">
         <v>4643000</v>
@@ -14381,36 +14021,30 @@
         <v>0</v>
       </c>
       <c r="BN60">
-        <v>142.2</v>
+        <v>60.09950248756218</v>
       </c>
       <c r="BO60">
-        <v>132.8</v>
-      </c>
-      <c r="BP60">
-        <v>60.09950248756218</v>
-      </c>
-      <c r="BQ60">
         <v>65.87064676616916</v>
       </c>
     </row>
-    <row r="61" spans="1:69">
+    <row r="61" spans="1:67">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D61" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E61">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G61">
         <v>628000</v>
@@ -14590,36 +14224,30 @@
         <v>0</v>
       </c>
       <c r="BN61">
-        <v>103.2</v>
+        <v>69.55223880597016</v>
       </c>
       <c r="BO61">
-        <v>158</v>
-      </c>
-      <c r="BP61">
-        <v>69.55223880597016</v>
-      </c>
-      <c r="BQ61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:69">
+    <row r="62" spans="1:67">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D62" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E62">
         <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G62">
         <v>700000</v>
@@ -14799,36 +14427,30 @@
         <v>0</v>
       </c>
       <c r="BN62">
-        <v>223.6</v>
+        <v>34.32835820895522</v>
       </c>
       <c r="BO62">
-        <v>306.6</v>
-      </c>
-      <c r="BP62">
-        <v>34.32835820895522</v>
-      </c>
-      <c r="BQ62">
         <v>21.19402985074627</v>
       </c>
     </row>
-    <row r="63" spans="1:69">
+    <row r="63" spans="1:67">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D63" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E63">
         <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G63">
         <v>350000</v>
@@ -15008,36 +14630,30 @@
         <v>0</v>
       </c>
       <c r="BN63">
-        <v>297.8</v>
+        <v>19.70149253731343</v>
       </c>
       <c r="BO63">
-        <v>314.6</v>
-      </c>
-      <c r="BP63">
-        <v>19.70149253731343</v>
-      </c>
-      <c r="BQ63">
         <v>20.39800995024876</v>
       </c>
     </row>
-    <row r="64" spans="1:69">
+    <row r="64" spans="1:67">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D64" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E64">
         <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G64">
         <v>1750000</v>
@@ -15217,36 +14833,30 @@
         <v>0</v>
       </c>
       <c r="BN64">
-        <v>76.40000000000001</v>
+        <v>79.30348258706468</v>
       </c>
       <c r="BO64">
-        <v>114.8</v>
-      </c>
-      <c r="BP64">
-        <v>79.30348258706468</v>
-      </c>
-      <c r="BQ64">
         <v>72.7363184079602</v>
       </c>
     </row>
-    <row r="65" spans="1:69">
+    <row r="65" spans="1:67">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D65" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E65">
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G65">
         <v>1622000</v>
@@ -15426,36 +15036,30 @@
         <v>1</v>
       </c>
       <c r="BN65">
-        <v>94.59999999999999</v>
+        <v>71.64179104477611</v>
       </c>
       <c r="BO65">
-        <v>167.6</v>
-      </c>
-      <c r="BP65">
-        <v>71.64179104477611</v>
-      </c>
-      <c r="BQ65">
         <v>56.51741293532339</v>
       </c>
     </row>
-    <row r="66" spans="1:69">
+    <row r="66" spans="1:67">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D66" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E66">
         <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G66">
         <v>1920000</v>
@@ -15635,27 +15239,21 @@
         <v>0</v>
       </c>
       <c r="BN66">
-        <v>85.2</v>
+        <v>74.42786069651741</v>
       </c>
       <c r="BO66">
-        <v>111</v>
-      </c>
-      <c r="BP66">
-        <v>74.42786069651741</v>
-      </c>
-      <c r="BQ66">
         <v>72.63681592039801</v>
       </c>
     </row>
-    <row r="67" spans="1:69">
+    <row r="67" spans="1:67">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
@@ -15664,7 +15262,7 @@
         <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G67">
         <v>1050000</v>
@@ -15844,36 +15442,30 @@
         <v>0</v>
       </c>
       <c r="BN67">
-        <v>116.8</v>
+        <v>66.16915422885572</v>
       </c>
       <c r="BO67">
-        <v>121.4</v>
-      </c>
-      <c r="BP67">
-        <v>66.16915422885572</v>
-      </c>
-      <c r="BQ67">
         <v>69.45273631840796</v>
       </c>
     </row>
-    <row r="68" spans="1:69">
+    <row r="68" spans="1:67">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E68">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G68">
         <v>500000</v>
@@ -16053,27 +15645,21 @@
         <v>0</v>
       </c>
       <c r="BN68">
-        <v>258.4</v>
+        <v>26.96517412935324</v>
       </c>
       <c r="BO68">
-        <v>160</v>
-      </c>
-      <c r="BP68">
-        <v>26.96517412935324</v>
-      </c>
-      <c r="BQ68">
         <v>58.70646766169154</v>
       </c>
     </row>
-    <row r="69" spans="1:69">
+    <row r="69" spans="1:67">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D69" t="s">
         <v>29</v>
@@ -16082,7 +15668,7 @@
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G69">
         <v>3551000</v>
@@ -16262,27 +15848,21 @@
         <v>0</v>
       </c>
       <c r="BN69">
-        <v>146.8</v>
+        <v>57.71144278606965</v>
       </c>
       <c r="BO69">
-        <v>262.8</v>
-      </c>
-      <c r="BP69">
-        <v>57.71144278606965</v>
-      </c>
-      <c r="BQ69">
         <v>30.04975124378109</v>
       </c>
     </row>
-    <row r="70" spans="1:69">
+    <row r="70" spans="1:67">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -16291,7 +15871,7 @@
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G70">
         <v>2763000</v>
@@ -16471,36 +16051,30 @@
         <v>0</v>
       </c>
       <c r="BN70">
-        <v>70</v>
+        <v>78.90547263681592</v>
       </c>
       <c r="BO70">
-        <v>111.2</v>
-      </c>
-      <c r="BP70">
-        <v>78.90547263681592</v>
-      </c>
-      <c r="BQ70">
         <v>75.32338308457712</v>
       </c>
     </row>
-    <row r="71" spans="1:69">
+    <row r="71" spans="1:67">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D71" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E71">
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G71">
         <v>6473000</v>
@@ -16680,27 +16254,21 @@
         <v>0</v>
       </c>
       <c r="BN71">
-        <v>193.2</v>
+        <v>43.18407960199005</v>
       </c>
       <c r="BO71">
-        <v>206.6</v>
-      </c>
-      <c r="BP71">
-        <v>43.18407960199005</v>
-      </c>
-      <c r="BQ71">
         <v>45.37313432835821</v>
       </c>
     </row>
-    <row r="72" spans="1:69">
+    <row r="72" spans="1:67">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D72" t="s">
         <v>29</v>
@@ -16709,7 +16277,7 @@
         <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G72">
         <v>4500000</v>
@@ -16889,27 +16457,21 @@
         <v>0</v>
       </c>
       <c r="BN72">
-        <v>41.2</v>
+        <v>87.86069651741293</v>
       </c>
       <c r="BO72">
-        <v>111.8</v>
-      </c>
-      <c r="BP72">
-        <v>87.86069651741293</v>
-      </c>
-      <c r="BQ72">
         <v>73.53233830845771</v>
       </c>
     </row>
-    <row r="73" spans="1:69">
+    <row r="73" spans="1:67">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -16918,7 +16480,7 @@
         <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G73">
         <v>970000</v>
@@ -17095,36 +16657,30 @@
         <v>0</v>
       </c>
       <c r="BN73">
-        <v>320.6</v>
+        <v>35.62189054726368</v>
       </c>
       <c r="BO73">
-        <v>277.4</v>
-      </c>
-      <c r="BP73">
-        <v>35.62189054726368</v>
-      </c>
-      <c r="BQ73">
         <v>29.75124378109453</v>
       </c>
     </row>
-    <row r="74" spans="1:69">
+    <row r="74" spans="1:67">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D74" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E74">
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G74">
         <v>5230000</v>
@@ -17304,36 +16860,30 @@
         <v>0</v>
       </c>
       <c r="BN74">
-        <v>55</v>
+        <v>82.88557213930348</v>
       </c>
       <c r="BO74">
-        <v>19</v>
-      </c>
-      <c r="BP74">
-        <v>82.88557213930348</v>
-      </c>
-      <c r="BQ74">
         <v>96.81592039800995</v>
       </c>
     </row>
-    <row r="75" spans="1:69">
+    <row r="75" spans="1:67">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D75" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E75">
         <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G75">
         <v>2837000</v>
@@ -17513,36 +17063,30 @@
         <v>0</v>
       </c>
       <c r="BN75">
-        <v>141.8</v>
+        <v>60.39800995024876</v>
       </c>
       <c r="BO75">
-        <v>137.6</v>
-      </c>
-      <c r="BP75">
-        <v>60.39800995024876</v>
-      </c>
-      <c r="BQ75">
         <v>65.4726368159204</v>
       </c>
     </row>
-    <row r="76" spans="1:69">
+    <row r="76" spans="1:67">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D76" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E76">
         <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G76">
         <v>3120000</v>
@@ -17722,36 +17266,30 @@
         <v>0</v>
       </c>
       <c r="BN76">
-        <v>148.8</v>
+        <v>55.4228855721393</v>
       </c>
       <c r="BO76">
-        <v>162.2</v>
-      </c>
-      <c r="BP76">
-        <v>55.4228855721393</v>
-      </c>
-      <c r="BQ76">
         <v>60.39800995024876</v>
       </c>
     </row>
-    <row r="77" spans="1:69">
+    <row r="77" spans="1:67">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D77" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E77">
         <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G77">
         <v>725000</v>
@@ -17931,27 +17469,21 @@
         <v>0</v>
       </c>
       <c r="BN77">
-        <v>256.2</v>
+        <v>27.66169154228856</v>
       </c>
       <c r="BO77">
-        <v>166.4</v>
-      </c>
-      <c r="BP77">
-        <v>27.66169154228856</v>
-      </c>
-      <c r="BQ77">
         <v>57.61194029850746</v>
       </c>
     </row>
-    <row r="78" spans="1:69">
+    <row r="78" spans="1:67">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
@@ -17960,7 +17492,7 @@
         <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G78">
         <v>791000</v>
@@ -18140,36 +17672,30 @@
         <v>0</v>
       </c>
       <c r="BN78">
-        <v>192.8</v>
+        <v>42.18905472636816</v>
       </c>
       <c r="BO78">
-        <v>271.4</v>
-      </c>
-      <c r="BP78">
-        <v>42.18905472636816</v>
-      </c>
-      <c r="BQ78">
         <v>30.24875621890547</v>
       </c>
     </row>
-    <row r="79" spans="1:69">
+    <row r="79" spans="1:67">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D79" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E79">
         <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G79">
         <v>500000</v>
@@ -18349,27 +17875,21 @@
         <v>0</v>
       </c>
       <c r="BN79">
-        <v>223.6</v>
+        <v>34.12935323383085</v>
       </c>
       <c r="BO79">
-        <v>301.4</v>
-      </c>
-      <c r="BP79">
-        <v>34.12935323383085</v>
-      </c>
-      <c r="BQ79">
         <v>22.88557213930348</v>
       </c>
     </row>
-    <row r="80" spans="1:69">
+    <row r="80" spans="1:67">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D80" t="s">
         <v>29</v>
@@ -18378,7 +17898,7 @@
         <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G80">
         <v>3425000</v>
@@ -18555,36 +18075,30 @@
         <v>0</v>
       </c>
       <c r="BN80">
-        <v>258</v>
+        <v>47.96019900497513</v>
       </c>
       <c r="BO80">
-        <v>172.6</v>
-      </c>
-      <c r="BP80">
-        <v>47.96019900497513</v>
-      </c>
-      <c r="BQ80">
         <v>56.11940298507463</v>
       </c>
     </row>
-    <row r="81" spans="1:69">
+    <row r="81" spans="1:67">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D81" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E81">
         <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G81">
         <v>2121000</v>
@@ -18764,36 +18278,30 @@
         <v>0</v>
       </c>
       <c r="BN81">
-        <v>134.6</v>
+        <v>62.68656716417911</v>
       </c>
       <c r="BO81">
-        <v>48.8</v>
-      </c>
-      <c r="BP81">
-        <v>62.68656716417911</v>
-      </c>
-      <c r="BQ81">
         <v>91.34328358208955</v>
       </c>
     </row>
-    <row r="82" spans="1:69">
+    <row r="82" spans="1:67">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D82" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E82">
         <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G82">
         <v>1601000</v>
@@ -18973,27 +18481,21 @@
         <v>0</v>
       </c>
       <c r="BN82">
-        <v>55.6</v>
+        <v>83.48258706467662</v>
       </c>
       <c r="BO82">
-        <v>177</v>
-      </c>
-      <c r="BP82">
-        <v>83.48258706467662</v>
-      </c>
-      <c r="BQ82">
         <v>55.4228855721393</v>
       </c>
     </row>
-    <row r="83" spans="1:69">
+    <row r="83" spans="1:67">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D83" t="s">
         <v>29</v>
@@ -19002,7 +18504,7 @@
         <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G83">
         <v>800000</v>
@@ -19182,36 +18684,30 @@
         <v>0</v>
       </c>
       <c r="BN83">
-        <v>263.2</v>
+        <v>26.96517412935324</v>
       </c>
       <c r="BO83">
-        <v>198.6</v>
-      </c>
-      <c r="BP83">
-        <v>26.96517412935324</v>
-      </c>
-      <c r="BQ83">
         <v>49.9502487562189</v>
       </c>
     </row>
-    <row r="84" spans="1:69">
+    <row r="84" spans="1:67">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D84" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E84">
         <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G84">
         <v>2584000</v>
@@ -19391,36 +18887,30 @@
         <v>0</v>
       </c>
       <c r="BN84">
-        <v>290</v>
+        <v>20.59701492537313</v>
       </c>
       <c r="BO84">
-        <v>392.6</v>
-      </c>
-      <c r="BP84">
-        <v>20.59701492537313</v>
-      </c>
-      <c r="BQ84">
         <v>4.577114427860696</v>
       </c>
     </row>
-    <row r="85" spans="1:69">
+    <row r="85" spans="1:67">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D85" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E85">
         <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G85">
         <v>3200000</v>
@@ -19600,36 +19090,30 @@
         <v>0</v>
       </c>
       <c r="BN85">
-        <v>126.6</v>
+        <v>63.98009950248756</v>
       </c>
       <c r="BO85">
-        <v>124.8</v>
-      </c>
-      <c r="BP85">
-        <v>63.98009950248756</v>
-      </c>
-      <c r="BQ85">
         <v>67.56218905472637</v>
       </c>
     </row>
-    <row r="86" spans="1:69">
+    <row r="86" spans="1:67">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D86" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E86">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G86">
         <v>2600000</v>
@@ -19809,36 +19293,30 @@
         <v>0</v>
       </c>
       <c r="BN86">
-        <v>143</v>
+        <v>58.30845771144278</v>
       </c>
       <c r="BO86">
-        <v>126</v>
-      </c>
-      <c r="BP86">
-        <v>58.30845771144278</v>
-      </c>
-      <c r="BQ86">
         <v>71.24378109452736</v>
       </c>
     </row>
-    <row r="87" spans="1:69">
+    <row r="87" spans="1:67">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D87" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E87">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G87">
         <v>845000</v>
@@ -20018,36 +19496,30 @@
         <v>0</v>
       </c>
       <c r="BN87">
-        <v>110.6</v>
+        <v>68.15920398009951</v>
       </c>
       <c r="BO87">
-        <v>143.2</v>
-      </c>
-      <c r="BP87">
-        <v>68.15920398009951</v>
-      </c>
-      <c r="BQ87">
         <v>65.97014925373134</v>
       </c>
     </row>
-    <row r="88" spans="1:69">
+    <row r="88" spans="1:67">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D88" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E88">
         <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G88">
         <v>1000000</v>
@@ -20227,36 +19699,30 @@
         <v>0</v>
       </c>
       <c r="BN88">
-        <v>267.4</v>
+        <v>23.08457711442786</v>
       </c>
       <c r="BO88">
-        <v>196.4</v>
-      </c>
-      <c r="BP88">
-        <v>23.08457711442786</v>
-      </c>
-      <c r="BQ88">
         <v>44.77611940298507</v>
       </c>
     </row>
-    <row r="89" spans="1:69">
+    <row r="89" spans="1:67">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E89">
         <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G89">
         <v>2900000</v>
@@ -20436,36 +19902,30 @@
         <v>0</v>
       </c>
       <c r="BN89">
-        <v>95.40000000000001</v>
+        <v>72.13930348258707</v>
       </c>
       <c r="BO89">
-        <v>36.6</v>
-      </c>
-      <c r="BP89">
-        <v>72.13930348258707</v>
-      </c>
-      <c r="BQ89">
         <v>92.93532338308458</v>
       </c>
     </row>
-    <row r="90" spans="1:69">
+    <row r="90" spans="1:67">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C90" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D90" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E90">
         <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G90">
         <v>1600000</v>
@@ -20645,27 +20105,21 @@
         <v>0</v>
       </c>
       <c r="BN90">
-        <v>89.2</v>
+        <v>73.13432835820896</v>
       </c>
       <c r="BO90">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="BP90">
-        <v>73.13432835820896</v>
-      </c>
-      <c r="BQ90">
         <v>81.49253731343285</v>
       </c>
     </row>
-    <row r="91" spans="1:69">
+    <row r="91" spans="1:67">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D91" t="s">
         <v>29</v>
@@ -20674,7 +20128,7 @@
         <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G91">
         <v>1425000</v>
@@ -20854,27 +20308,21 @@
         <v>0</v>
       </c>
       <c r="BN91">
-        <v>121.8</v>
+        <v>64.6766169154229</v>
       </c>
       <c r="BO91">
-        <v>250.6</v>
-      </c>
-      <c r="BP91">
-        <v>64.6766169154229</v>
-      </c>
-      <c r="BQ91">
         <v>33.13432835820895</v>
       </c>
     </row>
-    <row r="92" spans="1:69">
+    <row r="92" spans="1:67">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D92" t="s">
         <v>29</v>
@@ -20883,7 +20331,7 @@
         <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G92">
         <v>1650000</v>
@@ -21063,36 +20511,30 @@
         <v>0</v>
       </c>
       <c r="BN92">
-        <v>185.4</v>
+        <v>46.16915422885572</v>
       </c>
       <c r="BO92">
-        <v>158.6</v>
-      </c>
-      <c r="BP92">
-        <v>46.16915422885572</v>
-      </c>
-      <c r="BQ92">
         <v>60.69651741293532</v>
       </c>
     </row>
-    <row r="93" spans="1:69">
+    <row r="93" spans="1:67">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D93" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E93">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G93">
         <v>800000</v>
@@ -21272,36 +20714,30 @@
         <v>0</v>
       </c>
       <c r="BN93">
-        <v>227.4</v>
+        <v>34.32835820895522</v>
       </c>
       <c r="BO93">
-        <v>121</v>
-      </c>
-      <c r="BP93">
-        <v>34.32835820895522</v>
-      </c>
-      <c r="BQ93">
         <v>70.24875621890546</v>
       </c>
     </row>
-    <row r="94" spans="1:69">
+    <row r="94" spans="1:67">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D94" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E94">
         <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G94">
         <v>255000</v>
@@ -21481,36 +20917,30 @@
         <v>0</v>
       </c>
       <c r="BN94">
-        <v>135</v>
+        <v>59.80099502487563</v>
       </c>
       <c r="BO94">
-        <v>241.4</v>
-      </c>
-      <c r="BP94">
-        <v>59.80099502487563</v>
-      </c>
-      <c r="BQ94">
         <v>34.82587064676617</v>
       </c>
     </row>
-    <row r="95" spans="1:69">
+    <row r="95" spans="1:67">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E95">
         <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G95">
         <v>363000</v>
@@ -21690,36 +21120,30 @@
         <v>0</v>
       </c>
       <c r="BN95">
-        <v>270</v>
+        <v>20.19900497512438</v>
       </c>
       <c r="BO95">
-        <v>267.4</v>
-      </c>
-      <c r="BP95">
-        <v>20.19900497512438</v>
-      </c>
-      <c r="BQ95">
         <v>27.46268656716418</v>
       </c>
     </row>
-    <row r="96" spans="1:69">
+    <row r="96" spans="1:67">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D96" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E96">
         <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G96">
         <v>300000</v>
@@ -21899,27 +21323,21 @@
         <v>0</v>
       </c>
       <c r="BN96">
-        <v>270.8</v>
+        <v>22.78606965174129</v>
       </c>
       <c r="BO96">
-        <v>340</v>
-      </c>
-      <c r="BP96">
-        <v>22.78606965174129</v>
-      </c>
-      <c r="BQ96">
         <v>13.33333333333333</v>
       </c>
     </row>
-    <row r="97" spans="1:69">
+    <row r="97" spans="1:67">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D97" t="s">
         <v>29</v>
@@ -21928,7 +21346,7 @@
         <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G97">
         <v>600000</v>
@@ -22105,36 +21523,30 @@
         <v>0</v>
       </c>
       <c r="BN97">
-        <v>313.2</v>
+        <v>40</v>
       </c>
       <c r="BO97">
-        <v>355.4</v>
-      </c>
-      <c r="BP97">
-        <v>40</v>
-      </c>
-      <c r="BQ97">
         <v>13.53233830845771</v>
       </c>
     </row>
-    <row r="98" spans="1:69">
+    <row r="98" spans="1:67">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D98" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E98">
         <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G98">
         <v>1040000</v>
@@ -22314,36 +21726,30 @@
         <v>0</v>
       </c>
       <c r="BN98">
-        <v>311.2</v>
+        <v>12.63681592039801</v>
       </c>
       <c r="BO98">
-        <v>375.4</v>
-      </c>
-      <c r="BP98">
-        <v>12.63681592039801</v>
-      </c>
-      <c r="BQ98">
         <v>6.766169154228856</v>
       </c>
     </row>
-    <row r="99" spans="1:69">
+    <row r="99" spans="1:67">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D99" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E99">
         <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G99">
         <v>1000000</v>
@@ -22523,36 +21929,30 @@
         <v>0</v>
       </c>
       <c r="BN99">
-        <v>218.2</v>
+        <v>36.61691542288557</v>
       </c>
       <c r="BO99">
-        <v>301.4</v>
-      </c>
-      <c r="BP99">
-        <v>36.61691542288557</v>
-      </c>
-      <c r="BQ99">
         <v>22.18905472636816</v>
       </c>
     </row>
-    <row r="100" spans="1:69">
+    <row r="100" spans="1:67">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D100" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E100">
         <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G100">
         <v>3560000</v>
@@ -22732,36 +22132,30 @@
         <v>0</v>
       </c>
       <c r="BN100">
-        <v>129.2</v>
+        <v>62.38805970149254</v>
       </c>
       <c r="BO100">
-        <v>44.2</v>
-      </c>
-      <c r="BP100">
-        <v>62.38805970149254</v>
-      </c>
-      <c r="BQ100">
         <v>92.33830845771143</v>
       </c>
     </row>
-    <row r="101" spans="1:69">
+    <row r="101" spans="1:67">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E101">
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G101">
         <v>200000</v>
@@ -22941,27 +22335,21 @@
         <v>0</v>
       </c>
       <c r="BN101">
-        <v>289.2</v>
+        <v>19.20398009950249</v>
       </c>
       <c r="BO101">
-        <v>274.6</v>
-      </c>
-      <c r="BP101">
-        <v>19.20398009950249</v>
-      </c>
-      <c r="BQ101">
         <v>30.54726368159204</v>
       </c>
     </row>
-    <row r="102" spans="1:69">
+    <row r="102" spans="1:67">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
@@ -22970,7 +22358,7 @@
         <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G102">
         <v>1860000</v>
@@ -23150,36 +22538,30 @@
         <v>0</v>
       </c>
       <c r="BN102">
-        <v>95.59999999999999</v>
+        <v>72.7363184079602</v>
       </c>
       <c r="BO102">
-        <v>126.8</v>
-      </c>
-      <c r="BP102">
-        <v>72.7363184079602</v>
-      </c>
-      <c r="BQ102">
         <v>70.44776119402985</v>
       </c>
     </row>
-    <row r="103" spans="1:69">
+    <row r="103" spans="1:67">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D103" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E103">
         <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G103">
         <v>2300000</v>
@@ -23356,36 +22738,30 @@
         <v>0</v>
       </c>
       <c r="BN103">
-        <v>208.2</v>
+        <v>62.68656716417911</v>
       </c>
       <c r="BO103">
-        <v>209.6</v>
-      </c>
-      <c r="BP103">
-        <v>62.68656716417911</v>
-      </c>
-      <c r="BQ103">
         <v>43.28358208955223</v>
       </c>
     </row>
-    <row r="104" spans="1:69">
+    <row r="104" spans="1:67">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D104" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E104">
         <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G104">
         <v>1760000</v>
@@ -23565,36 +22941,30 @@
         <v>0</v>
       </c>
       <c r="BN104">
-        <v>268.4</v>
+        <v>21.89054726368159</v>
       </c>
       <c r="BO104">
-        <v>280.4</v>
-      </c>
-      <c r="BP104">
-        <v>21.89054726368159</v>
-      </c>
-      <c r="BQ104">
         <v>25.37313432835821</v>
       </c>
     </row>
-    <row r="105" spans="1:69">
+    <row r="105" spans="1:67">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D105" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E105">
         <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G105">
         <v>925000</v>
@@ -23774,36 +23144,30 @@
         <v>0</v>
       </c>
       <c r="BN105">
-        <v>220.4</v>
+        <v>35.92039800995025</v>
       </c>
       <c r="BO105">
-        <v>214.6</v>
-      </c>
-      <c r="BP105">
-        <v>35.92039800995025</v>
-      </c>
-      <c r="BQ105">
         <v>45.77114427860697</v>
       </c>
     </row>
-    <row r="106" spans="1:69">
+    <row r="106" spans="1:67">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D106" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E106">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G106">
         <v>3100000</v>
@@ -23983,27 +23347,21 @@
         <v>0</v>
       </c>
       <c r="BN106">
-        <v>135</v>
+        <v>59.80099502487563</v>
       </c>
       <c r="BO106">
-        <v>143</v>
-      </c>
-      <c r="BP106">
-        <v>59.80099502487563</v>
-      </c>
-      <c r="BQ106">
         <v>64.37810945273633</v>
       </c>
     </row>
-    <row r="107" spans="1:69">
+    <row r="107" spans="1:67">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
@@ -24012,7 +23370,7 @@
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G107">
         <v>6833000</v>
@@ -24192,36 +23550,30 @@
         <v>0</v>
       </c>
       <c r="BN107">
-        <v>102.4</v>
+        <v>71.04477611940298</v>
       </c>
       <c r="BO107">
-        <v>220.8</v>
-      </c>
-      <c r="BP107">
-        <v>71.04477611940298</v>
-      </c>
-      <c r="BQ107">
         <v>44.67661691542288</v>
       </c>
     </row>
-    <row r="108" spans="1:69">
+    <row r="108" spans="1:67">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C108" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D108" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E108">
         <v>22</v>
       </c>
       <c r="F108" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G108">
         <v>2730000</v>
@@ -24401,36 +23753,30 @@
         <v>0</v>
       </c>
       <c r="BN108">
-        <v>215.2</v>
+        <v>34.62686567164179</v>
       </c>
       <c r="BO108">
-        <v>260.8</v>
-      </c>
-      <c r="BP108">
-        <v>34.62686567164179</v>
-      </c>
-      <c r="BQ108">
         <v>30.8457711442786</v>
       </c>
     </row>
-    <row r="109" spans="1:69">
+    <row r="109" spans="1:67">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D109" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E109">
         <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G109">
         <v>3233000</v>
@@ -24610,36 +23956,30 @@
         <v>0</v>
       </c>
       <c r="BN109">
-        <v>120.6</v>
+        <v>67.06467661691543</v>
       </c>
       <c r="BO109">
-        <v>243.4</v>
-      </c>
-      <c r="BP109">
-        <v>67.06467661691543</v>
-      </c>
-      <c r="BQ109">
         <v>37.91044776119404</v>
       </c>
     </row>
-    <row r="110" spans="1:69">
+    <row r="110" spans="1:67">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D110" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E110">
         <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G110">
         <v>3472000</v>
@@ -24816,36 +24156,30 @@
         <v>0</v>
       </c>
       <c r="BN110">
-        <v>213.2</v>
+        <v>61.19402985074627</v>
       </c>
       <c r="BO110">
-        <v>99</v>
-      </c>
-      <c r="BP110">
-        <v>61.19402985074627</v>
-      </c>
-      <c r="BQ110">
         <v>77.81094527363184</v>
       </c>
     </row>
-    <row r="111" spans="1:69">
+    <row r="111" spans="1:67">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D111" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E111">
         <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G111">
         <v>1000000</v>
@@ -25025,36 +24359,30 @@
         <v>0</v>
       </c>
       <c r="BN111">
-        <v>118</v>
+        <v>66.16915422885572</v>
       </c>
       <c r="BO111">
-        <v>204.2</v>
-      </c>
-      <c r="BP111">
-        <v>66.16915422885572</v>
-      </c>
-      <c r="BQ111">
         <v>44.77611940298507</v>
       </c>
     </row>
-    <row r="112" spans="1:69">
+    <row r="112" spans="1:67">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D112" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E112">
         <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G112">
         <v>965000</v>
@@ -25234,36 +24562,30 @@
         <v>0</v>
       </c>
       <c r="BN112">
-        <v>225.6</v>
+        <v>37.01492537313433</v>
       </c>
       <c r="BO112">
-        <v>303.6</v>
-      </c>
-      <c r="BP112">
-        <v>37.01492537313433</v>
-      </c>
-      <c r="BQ112">
         <v>23.38308457711443</v>
       </c>
     </row>
-    <row r="113" spans="1:69">
+    <row r="113" spans="1:67">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C113" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D113" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E113">
         <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G113">
         <v>950000</v>
@@ -25443,27 +24765,21 @@
         <v>0</v>
       </c>
       <c r="BN113">
-        <v>83.59999999999999</v>
+        <v>76.51741293532339</v>
       </c>
       <c r="BO113">
-        <v>113.2</v>
-      </c>
-      <c r="BP113">
-        <v>76.51741293532339</v>
-      </c>
-      <c r="BQ113">
         <v>71.84079601990049</v>
       </c>
     </row>
-    <row r="114" spans="1:69">
+    <row r="114" spans="1:67">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C114" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D114" t="s">
         <v>29</v>
@@ -25472,7 +24788,7 @@
         <v>21</v>
       </c>
       <c r="F114" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G114">
         <v>2213000</v>
@@ -25652,36 +24968,30 @@
         <v>0</v>
       </c>
       <c r="BN114">
-        <v>112.6</v>
+        <v>65.87064676616916</v>
       </c>
       <c r="BO114">
-        <v>175</v>
-      </c>
-      <c r="BP114">
-        <v>65.87064676616916</v>
-      </c>
-      <c r="BQ114">
         <v>53.43283582089553</v>
       </c>
     </row>
-    <row r="115" spans="1:69">
+    <row r="115" spans="1:67">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D115" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E115">
         <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G115">
         <v>2800000</v>
@@ -25861,36 +25171,30 @@
         <v>0</v>
       </c>
       <c r="BN115">
-        <v>96.40000000000001</v>
+        <v>71.7412935323383</v>
       </c>
       <c r="BO115">
-        <v>143.2</v>
-      </c>
-      <c r="BP115">
-        <v>71.7412935323383</v>
-      </c>
-      <c r="BQ115">
         <v>64.77611940298506</v>
       </c>
     </row>
-    <row r="116" spans="1:69">
+    <row r="116" spans="1:67">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D116" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E116">
         <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G116">
         <v>845000</v>
@@ -26070,36 +25374,30 @@
         <v>0</v>
       </c>
       <c r="BN116">
-        <v>137.4</v>
+        <v>58.30845771144278</v>
       </c>
       <c r="BO116">
-        <v>163.8</v>
-      </c>
-      <c r="BP116">
         <v>58.30845771144278</v>
       </c>
-      <c r="BQ116">
-        <v>58.30845771144278</v>
-      </c>
     </row>
-    <row r="117" spans="1:69">
+    <row r="117" spans="1:67">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D117" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E117">
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G117">
         <v>556000</v>
@@ -26279,27 +25577,21 @@
         <v>0</v>
       </c>
       <c r="BN117">
-        <v>229.2</v>
+        <v>34.42786069651741</v>
       </c>
       <c r="BO117">
-        <v>353</v>
-      </c>
-      <c r="BP117">
-        <v>34.42786069651741</v>
-      </c>
-      <c r="BQ117">
         <v>9.55223880597015</v>
       </c>
     </row>
-    <row r="118" spans="1:69">
+    <row r="118" spans="1:67">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D118" t="s">
         <v>29</v>
@@ -26308,7 +25600,7 @@
         <v>25</v>
       </c>
       <c r="F118" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G118">
         <v>2372000</v>
@@ -26488,36 +25780,30 @@
         <v>0</v>
       </c>
       <c r="BN118">
-        <v>58.2</v>
+        <v>83.38308457711443</v>
       </c>
       <c r="BO118">
-        <v>144.2</v>
-      </c>
-      <c r="BP118">
-        <v>83.38308457711443</v>
-      </c>
-      <c r="BQ118">
         <v>63.98009950248756</v>
       </c>
     </row>
-    <row r="119" spans="1:69">
+    <row r="119" spans="1:67">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D119" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E119">
         <v>26</v>
       </c>
       <c r="F119" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G119">
         <v>1040000</v>
@@ -26697,36 +25983,30 @@
         <v>0</v>
       </c>
       <c r="BN119">
-        <v>98</v>
+        <v>71.94029850746269</v>
       </c>
       <c r="BO119">
-        <v>116.4</v>
-      </c>
-      <c r="BP119">
-        <v>71.94029850746269</v>
-      </c>
-      <c r="BQ119">
         <v>72.7363184079602</v>
       </c>
     </row>
-    <row r="120" spans="1:69">
+    <row r="120" spans="1:67">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D120" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E120">
         <v>24</v>
       </c>
       <c r="F120" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G120">
         <v>325000</v>
@@ -26906,36 +26186,30 @@
         <v>0</v>
       </c>
       <c r="BN120">
-        <v>219</v>
+        <v>37.61194029850746</v>
       </c>
       <c r="BO120">
-        <v>193.6</v>
-      </c>
-      <c r="BP120">
-        <v>37.61194029850746</v>
-      </c>
-      <c r="BQ120">
         <v>48.15920398009951</v>
       </c>
     </row>
-    <row r="121" spans="1:69">
+    <row r="121" spans="1:67">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D121" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E121">
         <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G121">
         <v>1000000</v>
@@ -27115,36 +26389,30 @@
         <v>0</v>
       </c>
       <c r="BN121">
-        <v>183</v>
+        <v>45.67164179104478</v>
       </c>
       <c r="BO121">
-        <v>208.2</v>
-      </c>
-      <c r="BP121">
-        <v>45.67164179104478</v>
-      </c>
-      <c r="BQ121">
         <v>48.2587064676617</v>
       </c>
     </row>
-    <row r="122" spans="1:69">
+    <row r="122" spans="1:67">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D122" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E122">
         <v>24</v>
       </c>
       <c r="F122" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G122">
         <v>1040000</v>
@@ -27321,36 +26589,30 @@
         <v>0</v>
       </c>
       <c r="BN122">
-        <v>289</v>
+        <v>45.77114427860697</v>
       </c>
       <c r="BO122">
-        <v>298.6</v>
-      </c>
-      <c r="BP122">
-        <v>45.77114427860697</v>
-      </c>
-      <c r="BQ122">
         <v>25.4726368159204</v>
       </c>
     </row>
-    <row r="123" spans="1:69">
+    <row r="123" spans="1:67">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C123" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D123" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E123">
         <v>30</v>
       </c>
       <c r="F123" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G123">
         <v>2500000</v>
@@ -27530,36 +26792,30 @@
         <v>0</v>
       </c>
       <c r="BN123">
-        <v>164.6</v>
+        <v>50.0497512437811</v>
       </c>
       <c r="BO123">
-        <v>128.8</v>
-      </c>
-      <c r="BP123">
-        <v>50.0497512437811</v>
-      </c>
-      <c r="BQ123">
         <v>67.46268656716417</v>
       </c>
     </row>
-    <row r="124" spans="1:69">
+    <row r="124" spans="1:67">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D124" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E124">
         <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G124">
         <v>2400000</v>
@@ -27739,36 +26995,30 @@
         <v>0</v>
       </c>
       <c r="BN124">
-        <v>184.2</v>
+        <v>43.08457711442786</v>
       </c>
       <c r="BO124">
-        <v>296.8</v>
-      </c>
-      <c r="BP124">
-        <v>43.08457711442786</v>
-      </c>
-      <c r="BQ124">
         <v>24.67661691542289</v>
       </c>
     </row>
-    <row r="125" spans="1:69">
+    <row r="125" spans="1:67">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D125" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E125">
         <v>24</v>
       </c>
       <c r="F125" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G125">
         <v>250000</v>
@@ -27948,36 +27198,30 @@
         <v>0</v>
       </c>
       <c r="BN125">
-        <v>114.4</v>
+        <v>68.35820895522389</v>
       </c>
       <c r="BO125">
-        <v>109.8</v>
-      </c>
-      <c r="BP125">
-        <v>68.35820895522389</v>
-      </c>
-      <c r="BQ125">
         <v>72.23880597014924</v>
       </c>
     </row>
-    <row r="126" spans="1:69">
+    <row r="126" spans="1:67">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C126" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D126" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E126">
         <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G126">
         <v>1100000</v>
@@ -28157,36 +27401,30 @@
         <v>0</v>
       </c>
       <c r="BN126">
-        <v>174.8</v>
+        <v>48.65671641791045</v>
       </c>
       <c r="BO126">
-        <v>195.8</v>
-      </c>
-      <c r="BP126">
-        <v>48.65671641791045</v>
-      </c>
-      <c r="BQ126">
         <v>48.05970149253731</v>
       </c>
     </row>
-    <row r="127" spans="1:69">
+    <row r="127" spans="1:67">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D127" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E127">
         <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G127">
         <v>2416000</v>
@@ -28366,27 +27604,21 @@
         <v>0</v>
       </c>
       <c r="BN127">
-        <v>180</v>
+        <v>48.55721393034826</v>
       </c>
       <c r="BO127">
-        <v>213.2</v>
-      </c>
-      <c r="BP127">
-        <v>48.55721393034826</v>
-      </c>
-      <c r="BQ127">
         <v>41.99004975124379</v>
       </c>
     </row>
-    <row r="128" spans="1:69">
+    <row r="128" spans="1:67">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
@@ -28395,7 +27627,7 @@
         <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G128">
         <v>2400000</v>
@@ -28575,36 +27807,30 @@
         <v>0</v>
       </c>
       <c r="BN128">
-        <v>109.4</v>
+        <v>68.95522388059702</v>
       </c>
       <c r="BO128">
-        <v>130</v>
-      </c>
-      <c r="BP128">
-        <v>68.95522388059702</v>
-      </c>
-      <c r="BQ128">
         <v>69.35323383084577</v>
       </c>
     </row>
-    <row r="129" spans="1:69">
+    <row r="129" spans="1:67">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C129" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D129" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E129">
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G129">
         <v>498000</v>
@@ -28781,27 +28007,21 @@
         <v>0</v>
       </c>
       <c r="BN129">
-        <v>297</v>
+        <v>45.67164179104478</v>
       </c>
       <c r="BO129">
-        <v>254.2</v>
-      </c>
-      <c r="BP129">
-        <v>45.67164179104478</v>
-      </c>
-      <c r="BQ129">
         <v>35.32338308457712</v>
       </c>
     </row>
-    <row r="130" spans="1:69">
+    <row r="130" spans="1:67">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
@@ -28810,7 +28030,7 @@
         <v>24</v>
       </c>
       <c r="F130" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G130">
         <v>500000</v>
@@ -28990,36 +28210,30 @@
         <v>0</v>
       </c>
       <c r="BN130">
-        <v>211.4</v>
+        <v>36.11940298507462</v>
       </c>
       <c r="BO130">
-        <v>169.4</v>
-      </c>
-      <c r="BP130">
-        <v>36.11940298507462</v>
-      </c>
-      <c r="BQ130">
         <v>57.41293532338309</v>
       </c>
     </row>
-    <row r="131" spans="1:69">
+    <row r="131" spans="1:67">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C131" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D131" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E131">
         <v>26</v>
       </c>
       <c r="F131" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G131">
         <v>600000</v>
@@ -29199,36 +28413,30 @@
         <v>0</v>
       </c>
       <c r="BN131">
-        <v>304</v>
+        <v>18.50746268656717</v>
       </c>
       <c r="BO131">
-        <v>337.2</v>
-      </c>
-      <c r="BP131">
-        <v>18.50746268656717</v>
-      </c>
-      <c r="BQ131">
         <v>13.93034825870647</v>
       </c>
     </row>
-    <row r="132" spans="1:69">
+    <row r="132" spans="1:67">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D132" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E132">
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G132">
         <v>971000</v>
@@ -29408,36 +28616,30 @@
         <v>0</v>
       </c>
       <c r="BN132">
-        <v>243.6</v>
+        <v>30.9452736318408</v>
       </c>
       <c r="BO132">
-        <v>343</v>
-      </c>
-      <c r="BP132">
-        <v>30.9452736318408</v>
-      </c>
-      <c r="BQ132">
         <v>11.94029850746269</v>
       </c>
     </row>
-    <row r="133" spans="1:69">
+    <row r="133" spans="1:67">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D133" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E133">
         <v>26</v>
       </c>
       <c r="F133" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G133">
         <v>1330000</v>
@@ -29617,36 +28819,30 @@
         <v>0</v>
       </c>
       <c r="BN133">
-        <v>216</v>
+        <v>37.21393034825871</v>
       </c>
       <c r="BO133">
-        <v>145</v>
-      </c>
-      <c r="BP133">
-        <v>37.21393034825871</v>
-      </c>
-      <c r="BQ133">
         <v>62.48756218905472</v>
       </c>
     </row>
-    <row r="134" spans="1:69">
+    <row r="134" spans="1:67">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C134" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D134" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E134">
         <v>30</v>
       </c>
       <c r="F134" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G134">
         <v>1340000</v>
@@ -29826,36 +29022,30 @@
         <v>0</v>
       </c>
       <c r="BN134">
-        <v>203.4</v>
+        <v>43.38308457711443</v>
       </c>
       <c r="BO134">
-        <v>195.2</v>
-      </c>
-      <c r="BP134">
-        <v>43.38308457711443</v>
-      </c>
-      <c r="BQ134">
         <v>49.15422885572139</v>
       </c>
     </row>
-    <row r="135" spans="1:69">
+    <row r="135" spans="1:67">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D135" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E135">
         <v>26</v>
       </c>
       <c r="F135" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G135">
         <v>2025000</v>
@@ -30035,36 +29225,30 @@
         <v>0</v>
       </c>
       <c r="BN135">
-        <v>183.6</v>
+        <v>48.65671641791045</v>
       </c>
       <c r="BO135">
-        <v>155.8</v>
-      </c>
-      <c r="BP135">
-        <v>48.65671641791045</v>
-      </c>
-      <c r="BQ135">
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:69">
+    <row r="136" spans="1:67">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C136" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D136" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E136">
         <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G136">
         <v>1690000</v>
@@ -30244,36 +29428,30 @@
         <v>0</v>
       </c>
       <c r="BN136">
-        <v>166.8</v>
+        <v>48.75621890547264</v>
       </c>
       <c r="BO136">
-        <v>130.4</v>
-      </c>
-      <c r="BP136">
-        <v>48.75621890547264</v>
-      </c>
-      <c r="BQ136">
         <v>67.56218905472637</v>
       </c>
     </row>
-    <row r="137" spans="1:69">
+    <row r="137" spans="1:67">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C137" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D137" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E137">
         <v>24</v>
       </c>
       <c r="F137" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G137">
         <v>845000</v>
@@ -30453,36 +29631,30 @@
         <v>0</v>
       </c>
       <c r="BN137">
-        <v>155.8</v>
+        <v>53.6318407960199</v>
       </c>
       <c r="BO137">
-        <v>201.8</v>
-      </c>
-      <c r="BP137">
-        <v>53.6318407960199</v>
-      </c>
-      <c r="BQ137">
         <v>45.4726368159204</v>
       </c>
     </row>
-    <row r="138" spans="1:69">
+    <row r="138" spans="1:67">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C138" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D138" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E138">
         <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G138">
         <v>1658000</v>
@@ -30662,36 +29834,30 @@
         <v>0</v>
       </c>
       <c r="BN138">
-        <v>97.40000000000001</v>
+        <v>71.04477611940298</v>
       </c>
       <c r="BO138">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="BP138">
-        <v>71.04477611940298</v>
-      </c>
-      <c r="BQ138">
         <v>83.38308457711443</v>
       </c>
     </row>
-    <row r="139" spans="1:69">
+    <row r="139" spans="1:67">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D139" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E139">
         <v>25</v>
       </c>
       <c r="F139" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G139">
         <v>1138000</v>
@@ -30871,36 +30037,30 @@
         <v>0</v>
       </c>
       <c r="BN139">
-        <v>277</v>
+        <v>20.99502487562189</v>
       </c>
       <c r="BO139">
-        <v>220.2</v>
-      </c>
-      <c r="BP139">
-        <v>20.99502487562189</v>
-      </c>
-      <c r="BQ139">
         <v>40.69651741293532</v>
       </c>
     </row>
-    <row r="140" spans="1:69">
+    <row r="140" spans="1:67">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D140" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E140">
         <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G140">
         <v>1000000</v>
@@ -31080,36 +30240,30 @@
         <v>0</v>
       </c>
       <c r="BN140">
-        <v>230</v>
+        <v>34.02985074626866</v>
       </c>
       <c r="BO140">
-        <v>132.4</v>
-      </c>
-      <c r="BP140">
-        <v>34.02985074626866</v>
-      </c>
-      <c r="BQ140">
         <v>64.27860696517412</v>
       </c>
     </row>
-    <row r="141" spans="1:69">
+    <row r="141" spans="1:67">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C141" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D141" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E141">
         <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G141">
         <v>2520000</v>
@@ -31289,36 +30443,30 @@
         <v>0</v>
       </c>
       <c r="BN141">
-        <v>136.2</v>
+        <v>58.60696517412936</v>
       </c>
       <c r="BO141">
-        <v>161.6</v>
-      </c>
-      <c r="BP141">
-        <v>58.60696517412936</v>
-      </c>
-      <c r="BQ141">
         <v>57.91044776119403</v>
       </c>
     </row>
-    <row r="142" spans="1:69">
+    <row r="142" spans="1:67">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C142" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D142" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E142">
         <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G142">
         <v>1525000</v>
@@ -31498,36 +30646,30 @@
         <v>0</v>
       </c>
       <c r="BN142">
-        <v>145.8</v>
+        <v>57.61194029850746</v>
       </c>
       <c r="BO142">
-        <v>164</v>
-      </c>
-      <c r="BP142">
-        <v>57.61194029850746</v>
-      </c>
-      <c r="BQ142">
         <v>57.3134328358209</v>
       </c>
     </row>
-    <row r="143" spans="1:69">
+    <row r="143" spans="1:67">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C143" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D143" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E143">
         <v>28</v>
       </c>
       <c r="F143" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G143">
         <v>225000</v>
@@ -31707,36 +30849,30 @@
         <v>0</v>
       </c>
       <c r="BN143">
-        <v>242.6</v>
+        <v>31.64179104477612</v>
       </c>
       <c r="BO143">
-        <v>203.4</v>
-      </c>
-      <c r="BP143">
-        <v>31.64179104477612</v>
-      </c>
-      <c r="BQ143">
         <v>46.16915422885572</v>
       </c>
     </row>
-    <row r="144" spans="1:69">
+    <row r="144" spans="1:67">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C144" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D144" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E144">
         <v>23</v>
       </c>
       <c r="F144" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G144">
         <v>1232000</v>
@@ -31916,36 +31052,30 @@
         <v>0</v>
       </c>
       <c r="BN144">
-        <v>284.8</v>
+        <v>20.29850746268657</v>
       </c>
       <c r="BO144">
-        <v>298.8</v>
-      </c>
-      <c r="BP144">
-        <v>20.29850746268657</v>
-      </c>
-      <c r="BQ144">
         <v>23.48258706467662</v>
       </c>
     </row>
-    <row r="145" spans="1:69">
+    <row r="145" spans="1:67">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C145" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D145" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E145">
         <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G145">
         <v>2521000</v>
@@ -32125,36 +31255,30 @@
         <v>0</v>
       </c>
       <c r="BN145">
-        <v>133.6</v>
+        <v>61.69154228855721</v>
       </c>
       <c r="BO145">
-        <v>189.6</v>
-      </c>
-      <c r="BP145">
-        <v>61.69154228855721</v>
-      </c>
-      <c r="BQ145">
         <v>49.45273631840796</v>
       </c>
     </row>
-    <row r="146" spans="1:69">
+    <row r="146" spans="1:67">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C146" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D146" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E146">
         <v>24</v>
       </c>
       <c r="F146" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G146">
         <v>3010000</v>
@@ -32334,36 +31458,30 @@
         <v>0</v>
       </c>
       <c r="BN146">
-        <v>130.6</v>
+        <v>61.49253731343284</v>
       </c>
       <c r="BO146">
-        <v>141</v>
-      </c>
-      <c r="BP146">
-        <v>61.49253731343284</v>
-      </c>
-      <c r="BQ146">
         <v>62.08955223880596</v>
       </c>
     </row>
-    <row r="147" spans="1:69">
+    <row r="147" spans="1:67">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C147" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D147" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E147">
         <v>25</v>
       </c>
       <c r="F147" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G147">
         <v>300000</v>
@@ -32543,36 +31661,30 @@
         <v>0</v>
       </c>
       <c r="BN147">
-        <v>267.4</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="BO147">
-        <v>262.2</v>
-      </c>
-      <c r="BP147">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="BQ147">
         <v>30.24875621890547</v>
       </c>
     </row>
-    <row r="148" spans="1:69">
+    <row r="148" spans="1:67">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C148" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D148" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E148">
         <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G148">
         <v>1150000</v>
@@ -32752,36 +31864,30 @@
         <v>0</v>
       </c>
       <c r="BN148">
-        <v>209.2</v>
+        <v>37.01492537313433</v>
       </c>
       <c r="BO148">
-        <v>270.4</v>
-      </c>
-      <c r="BP148">
-        <v>37.01492537313433</v>
-      </c>
-      <c r="BQ148">
         <v>27.66169154228856</v>
       </c>
     </row>
-    <row r="149" spans="1:69">
+    <row r="149" spans="1:67">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C149" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D149" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E149">
         <v>25</v>
       </c>
       <c r="F149" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G149">
         <v>3000000</v>
@@ -32958,36 +32064,30 @@
         <v>0</v>
       </c>
       <c r="BN149">
-        <v>266.2</v>
+        <v>48.15920398009951</v>
       </c>
       <c r="BO149">
-        <v>262.6</v>
-      </c>
-      <c r="BP149">
-        <v>48.15920398009951</v>
-      </c>
-      <c r="BQ149">
         <v>33.13432835820895</v>
       </c>
     </row>
-    <row r="150" spans="1:69">
+    <row r="150" spans="1:67">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D150" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E150">
         <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G150">
         <v>225000</v>
@@ -33167,36 +32267,30 @@
         <v>0</v>
       </c>
       <c r="BN150">
-        <v>94.59999999999999</v>
+        <v>71.84079601990049</v>
       </c>
       <c r="BO150">
-        <v>227.6</v>
-      </c>
-      <c r="BP150">
-        <v>71.84079601990049</v>
-      </c>
-      <c r="BQ150">
         <v>39.80099502487563</v>
       </c>
     </row>
-    <row r="151" spans="1:69">
+    <row r="151" spans="1:67">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C151" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D151" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E151">
         <v>29</v>
       </c>
       <c r="F151" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G151">
         <v>3018000</v>
@@ -33376,36 +32470,30 @@
         <v>0</v>
       </c>
       <c r="BN151">
-        <v>72.2</v>
+        <v>78.1094527363184</v>
       </c>
       <c r="BO151">
-        <v>87.8</v>
-      </c>
-      <c r="BP151">
-        <v>78.1094527363184</v>
-      </c>
-      <c r="BQ151">
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:69">
+    <row r="152" spans="1:67">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C152" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D152" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E152">
         <v>23</v>
       </c>
       <c r="F152" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G152">
         <v>3770000</v>
@@ -33585,36 +32673,30 @@
         <v>0</v>
       </c>
       <c r="BN152">
-        <v>72.59999999999999</v>
+        <v>79.70149253731343</v>
       </c>
       <c r="BO152">
-        <v>140.6</v>
-      </c>
-      <c r="BP152">
-        <v>79.70149253731343</v>
-      </c>
-      <c r="BQ152">
         <v>63.28358208955224</v>
       </c>
     </row>
-    <row r="153" spans="1:69">
+    <row r="153" spans="1:67">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C153" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D153" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E153">
         <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G153">
         <v>1040000</v>
@@ -33794,27 +32876,21 @@
         <v>0</v>
       </c>
       <c r="BN153">
-        <v>225.4</v>
+        <v>34.72636815920398</v>
       </c>
       <c r="BO153">
-        <v>229.6</v>
-      </c>
-      <c r="BP153">
-        <v>34.72636815920398</v>
-      </c>
-      <c r="BQ153">
         <v>37.81094527363184</v>
       </c>
     </row>
-    <row r="154" spans="1:69">
+    <row r="154" spans="1:67">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
@@ -33823,7 +32899,7 @@
         <v>24</v>
       </c>
       <c r="F154" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G154">
         <v>930000</v>
@@ -34003,36 +33079,30 @@
         <v>0</v>
       </c>
       <c r="BN154">
-        <v>204.2</v>
+        <v>39.30348258706468</v>
       </c>
       <c r="BO154">
-        <v>245.6</v>
-      </c>
-      <c r="BP154">
-        <v>39.30348258706468</v>
-      </c>
-      <c r="BQ154">
         <v>39.00497512437811</v>
       </c>
     </row>
-    <row r="155" spans="1:69">
+    <row r="155" spans="1:67">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C155" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D155" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E155">
         <v>24</v>
       </c>
       <c r="F155" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G155">
         <v>1920000</v>
@@ -34212,36 +33282,30 @@
         <v>0</v>
       </c>
       <c r="BN155">
-        <v>117.8</v>
+        <v>64.77611940298506</v>
       </c>
       <c r="BO155">
-        <v>187</v>
-      </c>
-      <c r="BP155">
-        <v>64.77611940298506</v>
-      </c>
-      <c r="BQ155">
         <v>49.85074626865672</v>
       </c>
     </row>
-    <row r="156" spans="1:69">
+    <row r="156" spans="1:67">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C156" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D156" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E156">
         <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G156">
         <v>1268000</v>
@@ -34421,36 +33485,30 @@
         <v>0</v>
       </c>
       <c r="BN156">
-        <v>129.6</v>
+        <v>60.19900497512438</v>
       </c>
       <c r="BO156">
-        <v>178.4</v>
-      </c>
-      <c r="BP156">
-        <v>60.19900497512438</v>
-      </c>
-      <c r="BQ156">
         <v>52.43781094527363</v>
       </c>
     </row>
-    <row r="157" spans="1:69">
+    <row r="157" spans="1:67">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C157" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D157" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E157">
         <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G157">
         <v>1500000</v>
@@ -34630,36 +33688,30 @@
         <v>0</v>
       </c>
       <c r="BN157">
-        <v>245.8</v>
+        <v>27.06467661691542</v>
       </c>
       <c r="BO157">
-        <v>195.4</v>
-      </c>
-      <c r="BP157">
-        <v>27.06467661691542</v>
-      </c>
-      <c r="BQ157">
         <v>50.44776119402985</v>
       </c>
     </row>
-    <row r="158" spans="1:69">
+    <row r="158" spans="1:67">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C158" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D158" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E158">
         <v>23</v>
       </c>
       <c r="F158" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G158">
         <v>845000</v>
@@ -34839,36 +33891,30 @@
         <v>0</v>
       </c>
       <c r="BN158">
-        <v>264.8</v>
+        <v>24.77611940298507</v>
       </c>
       <c r="BO158">
-        <v>240</v>
-      </c>
-      <c r="BP158">
-        <v>24.77611940298507</v>
-      </c>
-      <c r="BQ158">
         <v>36.51741293532339</v>
       </c>
     </row>
-    <row r="159" spans="1:69">
+    <row r="159" spans="1:67">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C159" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D159" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E159">
         <v>27</v>
       </c>
       <c r="F159" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G159">
         <v>3150000</v>
@@ -35048,36 +34094,30 @@
         <v>0</v>
       </c>
       <c r="BN159">
-        <v>105.2</v>
+        <v>67.76119402985074</v>
       </c>
       <c r="BO159">
-        <v>78.8</v>
-      </c>
-      <c r="BP159">
-        <v>67.76119402985074</v>
-      </c>
-      <c r="BQ159">
         <v>83.98009950248758</v>
       </c>
     </row>
-    <row r="160" spans="1:69">
+    <row r="160" spans="1:67">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C160" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D160" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E160">
         <v>25</v>
       </c>
       <c r="F160" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G160">
         <v>1495000</v>
@@ -35257,36 +34297,30 @@
         <v>0</v>
       </c>
       <c r="BN160">
-        <v>122.2</v>
+        <v>65.97014925373134</v>
       </c>
       <c r="BO160">
-        <v>223</v>
-      </c>
-      <c r="BP160">
-        <v>65.97014925373134</v>
-      </c>
-      <c r="BQ160">
         <v>39.40298507462687</v>
       </c>
     </row>
-    <row r="161" spans="1:69">
+    <row r="161" spans="1:67">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D161" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E161">
         <v>30</v>
       </c>
       <c r="F161" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G161">
         <v>3532000</v>
@@ -35466,36 +34500,30 @@
         <v>0</v>
       </c>
       <c r="BN161">
-        <v>123</v>
+        <v>61.59203980099502</v>
       </c>
       <c r="BO161">
-        <v>191</v>
-      </c>
-      <c r="BP161">
-        <v>61.59203980099502</v>
-      </c>
-      <c r="BQ161">
         <v>52.7363184079602</v>
       </c>
     </row>
-    <row r="162" spans="1:69">
+    <row r="162" spans="1:67">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D162" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E162">
         <v>29</v>
       </c>
       <c r="F162" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G162">
         <v>4250000</v>
@@ -35675,36 +34703,30 @@
         <v>0</v>
       </c>
       <c r="BN162">
-        <v>173.6</v>
+        <v>47.46268656716418</v>
       </c>
       <c r="BO162">
-        <v>327.6</v>
-      </c>
-      <c r="BP162">
-        <v>47.46268656716418</v>
-      </c>
-      <c r="BQ162">
         <v>17.11442786069652</v>
       </c>
     </row>
-    <row r="163" spans="1:69">
+    <row r="163" spans="1:67">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D163" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E163">
         <v>27</v>
       </c>
       <c r="F163" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G163">
         <v>2676000</v>
@@ -35884,27 +34906,21 @@
         <v>0</v>
       </c>
       <c r="BN163">
-        <v>209.4</v>
+        <v>38.80597014925373</v>
       </c>
       <c r="BO163">
-        <v>265.2</v>
-      </c>
-      <c r="BP163">
-        <v>38.80597014925373</v>
-      </c>
-      <c r="BQ163">
         <v>28.75621890547264</v>
       </c>
     </row>
-    <row r="164" spans="1:69">
+    <row r="164" spans="1:67">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D164" t="s">
         <v>29</v>
@@ -35913,7 +34929,7 @@
         <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G164">
         <v>845000</v>
@@ -36093,27 +35109,21 @@
         <v>0</v>
       </c>
       <c r="BN164">
-        <v>302.6</v>
+        <v>15.92039800995025</v>
       </c>
       <c r="BO164">
-        <v>262</v>
-      </c>
-      <c r="BP164">
-        <v>15.92039800995025</v>
-      </c>
-      <c r="BQ164">
         <v>31.44278606965174</v>
       </c>
     </row>
-    <row r="165" spans="1:69">
+    <row r="165" spans="1:67">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D165" t="s">
         <v>29</v>
@@ -36122,7 +35132,7 @@
         <v>20</v>
       </c>
       <c r="F165" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G165">
         <v>2473000</v>
@@ -36302,36 +35312,30 @@
         <v>0</v>
       </c>
       <c r="BN165">
-        <v>88.2</v>
+        <v>72.93532338308457</v>
       </c>
       <c r="BO165">
-        <v>128.8</v>
-      </c>
-      <c r="BP165">
-        <v>72.93532338308457</v>
-      </c>
-      <c r="BQ165">
         <v>69.25373134328358</v>
       </c>
     </row>
-    <row r="166" spans="1:69">
+    <row r="166" spans="1:67">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D166" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E166">
         <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G166">
         <v>2683000</v>
@@ -36511,27 +35515,21 @@
         <v>0</v>
       </c>
       <c r="BN166">
-        <v>226.6</v>
+        <v>36.318407960199</v>
       </c>
       <c r="BO166">
-        <v>227.6</v>
-      </c>
-      <c r="BP166">
-        <v>36.318407960199</v>
-      </c>
-      <c r="BQ166">
         <v>42.58706467661691</v>
       </c>
     </row>
-    <row r="167" spans="1:69">
+    <row r="167" spans="1:67">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D167" t="s">
         <v>29</v>
@@ -36540,7 +35538,7 @@
         <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G167">
         <v>1340000</v>
@@ -36720,36 +35718,30 @@
         <v>0</v>
       </c>
       <c r="BN167">
-        <v>146.8</v>
+        <v>56.21890547263681</v>
       </c>
       <c r="BO167">
-        <v>175</v>
-      </c>
-      <c r="BP167">
-        <v>56.21890547263681</v>
-      </c>
-      <c r="BQ167">
         <v>55.82089552238806</v>
       </c>
     </row>
-    <row r="168" spans="1:69">
+    <row r="168" spans="1:67">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C168" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D168" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E168">
         <v>26</v>
       </c>
       <c r="F168" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G168">
         <v>2568000</v>
@@ -36929,36 +35921,30 @@
         <v>0</v>
       </c>
       <c r="BN168">
-        <v>129.2</v>
+        <v>63.38308457711443</v>
       </c>
       <c r="BO168">
-        <v>88.2</v>
-      </c>
-      <c r="BP168">
-        <v>63.38308457711443</v>
-      </c>
-      <c r="BQ168">
         <v>80.49751243781095</v>
       </c>
     </row>
-    <row r="169" spans="1:69">
+    <row r="169" spans="1:67">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C169" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D169" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E169">
         <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G169">
         <v>3750000</v>
@@ -37138,36 +36124,30 @@
         <v>0</v>
       </c>
       <c r="BN169">
-        <v>137</v>
+        <v>60.99502487562189</v>
       </c>
       <c r="BO169">
-        <v>68.2</v>
-      </c>
-      <c r="BP169">
-        <v>60.99502487562189</v>
-      </c>
-      <c r="BQ169">
         <v>84.27860696517413</v>
       </c>
     </row>
-    <row r="170" spans="1:69">
+    <row r="170" spans="1:67">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C170" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D170" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E170">
         <v>28</v>
       </c>
       <c r="F170" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G170">
         <v>2181000</v>
@@ -37344,36 +36324,30 @@
         <v>0</v>
       </c>
       <c r="BN170">
-        <v>270.2</v>
+        <v>49.9502487562189</v>
       </c>
       <c r="BO170">
-        <v>249.6</v>
-      </c>
-      <c r="BP170">
-        <v>49.9502487562189</v>
-      </c>
-      <c r="BQ170">
         <v>37.11442786069652</v>
       </c>
     </row>
-    <row r="171" spans="1:69">
+    <row r="171" spans="1:67">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C171" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D171" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E171">
         <v>25</v>
       </c>
       <c r="F171" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G171">
         <v>975000</v>
@@ -37553,36 +36527,30 @@
         <v>0</v>
       </c>
       <c r="BN171">
-        <v>65.40000000000001</v>
+        <v>82.98507462686567</v>
       </c>
       <c r="BO171">
-        <v>132</v>
-      </c>
-      <c r="BP171">
-        <v>82.98507462686567</v>
-      </c>
-      <c r="BQ171">
         <v>66.86567164179105</v>
       </c>
     </row>
-    <row r="172" spans="1:69">
+    <row r="172" spans="1:67">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C172" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D172" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E172">
         <v>21</v>
       </c>
       <c r="F172" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G172">
         <v>1987000</v>
@@ -37762,36 +36730,30 @@
         <v>0</v>
       </c>
       <c r="BN172">
-        <v>70.40000000000001</v>
+        <v>77.31343283582089</v>
       </c>
       <c r="BO172">
-        <v>182.6</v>
-      </c>
-      <c r="BP172">
-        <v>77.31343283582089</v>
-      </c>
-      <c r="BQ172">
         <v>51.94029850746269</v>
       </c>
     </row>
-    <row r="173" spans="1:69">
+    <row r="173" spans="1:67">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C173" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D173" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E173">
         <v>30</v>
       </c>
       <c r="F173" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G173">
         <v>1613000</v>
@@ -37971,36 +36933,30 @@
         <v>0</v>
       </c>
       <c r="BN173">
-        <v>143.4</v>
+        <v>58.2089552238806</v>
       </c>
       <c r="BO173">
-        <v>125.4</v>
-      </c>
-      <c r="BP173">
-        <v>58.2089552238806</v>
-      </c>
-      <c r="BQ173">
         <v>68.95522388059702</v>
       </c>
     </row>
-    <row r="174" spans="1:69">
+    <row r="174" spans="1:67">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C174" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D174" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E174">
         <v>25</v>
       </c>
       <c r="F174" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G174">
         <v>1550000</v>
@@ -38180,36 +37136,30 @@
         <v>0</v>
       </c>
       <c r="BN174">
-        <v>112.2</v>
+        <v>66.86567164179105</v>
       </c>
       <c r="BO174">
-        <v>175.8</v>
-      </c>
-      <c r="BP174">
-        <v>66.86567164179105</v>
-      </c>
-      <c r="BQ174">
         <v>53.93034825870647</v>
       </c>
     </row>
-    <row r="175" spans="1:69">
+    <row r="175" spans="1:67">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C175" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D175" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E175">
         <v>22</v>
       </c>
       <c r="F175" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G175">
         <v>1345000</v>
@@ -38389,36 +37339,30 @@
         <v>0</v>
       </c>
       <c r="BN175">
-        <v>81.2</v>
+        <v>75.62189054726367</v>
       </c>
       <c r="BO175">
-        <v>144.8</v>
-      </c>
-      <c r="BP175">
-        <v>75.62189054726367</v>
-      </c>
-      <c r="BQ175">
         <v>62.28855721393035</v>
       </c>
     </row>
-    <row r="176" spans="1:69">
+    <row r="176" spans="1:67">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C176" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D176" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E176">
         <v>29</v>
       </c>
       <c r="F176" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G176">
         <v>2280000</v>
@@ -38598,27 +37542,21 @@
         <v>0</v>
       </c>
       <c r="BN176">
-        <v>85.8</v>
+        <v>73.73134328358208</v>
       </c>
       <c r="BO176">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="BP176">
-        <v>73.73134328358208</v>
-      </c>
-      <c r="BQ176">
         <v>81.29353233830847</v>
       </c>
     </row>
-    <row r="177" spans="1:69">
+    <row r="177" spans="1:67">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C177" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D177" t="s">
         <v>29</v>
@@ -38627,7 +37565,7 @@
         <v>27</v>
       </c>
       <c r="F177" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G177">
         <v>1000000</v>
@@ -38807,36 +37745,30 @@
         <v>0</v>
       </c>
       <c r="BN177">
-        <v>282.4</v>
+        <v>18.30845771144278</v>
       </c>
       <c r="BO177">
-        <v>237.6</v>
-      </c>
-      <c r="BP177">
-        <v>18.30845771144278</v>
-      </c>
-      <c r="BQ177">
         <v>37.61194029850746</v>
       </c>
     </row>
-    <row r="178" spans="1:69">
+    <row r="178" spans="1:67">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C178" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D178" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E178">
         <v>22</v>
       </c>
       <c r="F178" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G178">
         <v>752000</v>
@@ -39016,36 +37948,30 @@
         <v>0</v>
       </c>
       <c r="BN178">
-        <v>202.6</v>
+        <v>41.29353233830846</v>
       </c>
       <c r="BO178">
-        <v>190.2</v>
-      </c>
-      <c r="BP178">
-        <v>41.29353233830846</v>
-      </c>
-      <c r="BQ178">
         <v>48.95522388059702</v>
       </c>
     </row>
-    <row r="179" spans="1:69">
+    <row r="179" spans="1:67">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C179" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D179" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E179">
         <v>25</v>
       </c>
       <c r="F179" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G179">
         <v>650000</v>
@@ -39225,27 +38151,21 @@
         <v>0</v>
       </c>
       <c r="BN179">
-        <v>202</v>
+        <v>43.68159203980099</v>
       </c>
       <c r="BO179">
-        <v>260.8</v>
-      </c>
-      <c r="BP179">
-        <v>43.68159203980099</v>
-      </c>
-      <c r="BQ179">
         <v>34.12935323383085</v>
       </c>
     </row>
-    <row r="180" spans="1:69">
+    <row r="180" spans="1:67">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C180" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
@@ -39254,7 +38174,7 @@
         <v>23</v>
       </c>
       <c r="F180" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G180">
         <v>1071000</v>
@@ -39434,36 +38354,30 @@
         <v>0</v>
       </c>
       <c r="BN180">
-        <v>182.8</v>
+        <v>49.55223880597014</v>
       </c>
       <c r="BO180">
-        <v>198.2</v>
-      </c>
-      <c r="BP180">
-        <v>49.55223880597014</v>
-      </c>
-      <c r="BQ180">
         <v>49.65174129353234</v>
       </c>
     </row>
-    <row r="181" spans="1:69">
+    <row r="181" spans="1:67">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C181" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D181" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E181">
         <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G181">
         <v>2400000</v>
@@ -39643,27 +38557,21 @@
         <v>0</v>
       </c>
       <c r="BN181">
-        <v>213</v>
+        <v>38.1094527363184</v>
       </c>
       <c r="BO181">
-        <v>204</v>
-      </c>
-      <c r="BP181">
-        <v>38.1094527363184</v>
-      </c>
-      <c r="BQ181">
         <v>45.87064676616915</v>
       </c>
     </row>
-    <row r="182" spans="1:69">
+    <row r="182" spans="1:67">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C182" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
@@ -39672,7 +38580,7 @@
         <v>31</v>
       </c>
       <c r="F182" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G182">
         <v>3475000</v>
@@ -39849,27 +38757,21 @@
         <v>0</v>
       </c>
       <c r="BN182">
-        <v>287</v>
+        <v>46.46766169154229</v>
       </c>
       <c r="BO182">
-        <v>181.4</v>
-      </c>
-      <c r="BP182">
-        <v>46.46766169154229</v>
-      </c>
-      <c r="BQ182">
         <v>55.62189054726367</v>
       </c>
     </row>
-    <row r="183" spans="1:69">
+    <row r="183" spans="1:67">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C183" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -39878,7 +38780,7 @@
         <v>21</v>
       </c>
       <c r="F183" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G183">
         <v>1022000</v>
@@ -40058,27 +38960,21 @@
         <v>0</v>
       </c>
       <c r="BN183">
-        <v>237</v>
+        <v>28.1592039800995</v>
       </c>
       <c r="BO183">
-        <v>245</v>
-      </c>
-      <c r="BP183">
-        <v>28.1592039800995</v>
-      </c>
-      <c r="BQ183">
         <v>37.3134328358209</v>
       </c>
     </row>
-    <row r="184" spans="1:69">
+    <row r="184" spans="1:67">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C184" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -40087,7 +38983,7 @@
         <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G184">
         <v>1300000</v>
@@ -40267,36 +39163,30 @@
         <v>0</v>
       </c>
       <c r="BN184">
-        <v>306.4</v>
+        <v>12.63681592039801</v>
       </c>
       <c r="BO184">
-        <v>366</v>
-      </c>
-      <c r="BP184">
-        <v>12.63681592039801</v>
-      </c>
-      <c r="BQ184">
         <v>9.054726368159203</v>
       </c>
     </row>
-    <row r="185" spans="1:69">
+    <row r="185" spans="1:67">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C185" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D185" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E185">
         <v>24</v>
       </c>
       <c r="F185" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G185">
         <v>1900000</v>
@@ -40476,27 +39366,21 @@
         <v>0</v>
       </c>
       <c r="BN185">
-        <v>143</v>
+        <v>54.72636815920397</v>
       </c>
       <c r="BO185">
-        <v>139</v>
-      </c>
-      <c r="BP185">
-        <v>54.72636815920397</v>
-      </c>
-      <c r="BQ185">
         <v>65.87064676616916</v>
       </c>
     </row>
-    <row r="186" spans="1:69">
+    <row r="186" spans="1:67">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C186" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -40505,7 +39389,7 @@
         <v>27</v>
       </c>
       <c r="F186" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G186">
         <v>3000000</v>
@@ -40685,36 +39569,30 @@
         <v>0</v>
       </c>
       <c r="BN186">
-        <v>100.2</v>
+        <v>71.7412935323383</v>
       </c>
       <c r="BO186">
-        <v>131</v>
-      </c>
-      <c r="BP186">
-        <v>71.7412935323383</v>
-      </c>
-      <c r="BQ186">
         <v>67.76119402985074</v>
       </c>
     </row>
-    <row r="187" spans="1:69">
+    <row r="187" spans="1:67">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C187" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D187" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E187">
         <v>25</v>
       </c>
       <c r="F187" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G187">
         <v>722000</v>
@@ -40894,36 +39772,30 @@
         <v>0</v>
       </c>
       <c r="BN187">
-        <v>226.2</v>
+        <v>32.13930348258706</v>
       </c>
       <c r="BO187">
-        <v>235</v>
-      </c>
-      <c r="BP187">
-        <v>32.13930348258706</v>
-      </c>
-      <c r="BQ187">
         <v>36.01990049751244</v>
       </c>
     </row>
-    <row r="188" spans="1:69">
+    <row r="188" spans="1:67">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C188" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D188" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E188">
         <v>23</v>
       </c>
       <c r="F188" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G188">
         <v>1000000</v>
@@ -41103,36 +39975,30 @@
         <v>0</v>
       </c>
       <c r="BN188">
-        <v>278.2</v>
+        <v>20.79601990049751</v>
       </c>
       <c r="BO188">
-        <v>334.4</v>
-      </c>
-      <c r="BP188">
-        <v>20.79601990049751</v>
-      </c>
-      <c r="BQ188">
         <v>15.32338308457711</v>
       </c>
     </row>
-    <row r="189" spans="1:69">
+    <row r="189" spans="1:67">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C189" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D189" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E189">
         <v>32</v>
       </c>
       <c r="F189" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G189">
         <v>1000000</v>
@@ -41312,36 +40178,30 @@
         <v>0</v>
       </c>
       <c r="BN189">
-        <v>281</v>
+        <v>21.39303482587065</v>
       </c>
       <c r="BO189">
-        <v>234</v>
-      </c>
-      <c r="BP189">
-        <v>21.39303482587065</v>
-      </c>
-      <c r="BQ189">
         <v>38.80597014925373</v>
       </c>
     </row>
-    <row r="190" spans="1:69">
+    <row r="190" spans="1:67">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C190" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D190" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E190">
         <v>25</v>
       </c>
       <c r="F190" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G190">
         <v>300000</v>
@@ -41521,36 +40381,30 @@
         <v>0</v>
       </c>
       <c r="BN190">
-        <v>140.2</v>
+        <v>58.60696517412936</v>
       </c>
       <c r="BO190">
-        <v>66.8</v>
-      </c>
-      <c r="BP190">
-        <v>58.60696517412936</v>
-      </c>
-      <c r="BQ190">
         <v>86.96517412935324</v>
       </c>
     </row>
-    <row r="191" spans="1:69">
+    <row r="191" spans="1:67">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C191" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D191" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E191">
         <v>28</v>
       </c>
       <c r="F191" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G191">
         <v>1900000</v>
@@ -41730,27 +40584,21 @@
         <v>0</v>
       </c>
       <c r="BN191">
-        <v>245.4</v>
+        <v>28.85572139303483</v>
       </c>
       <c r="BO191">
-        <v>355</v>
-      </c>
-      <c r="BP191">
-        <v>28.85572139303483</v>
-      </c>
-      <c r="BQ191">
         <v>11.34328358208955</v>
       </c>
     </row>
-    <row r="192" spans="1:69">
+    <row r="192" spans="1:67">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C192" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D192" t="s">
         <v>29</v>
@@ -41759,7 +40607,7 @@
         <v>35</v>
       </c>
       <c r="F192" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G192">
         <v>3400000</v>
@@ -41939,36 +40787,30 @@
         <v>0</v>
       </c>
       <c r="BN192">
-        <v>176.8</v>
+        <v>48.65671641791045</v>
       </c>
       <c r="BO192">
-        <v>202.6</v>
-      </c>
-      <c r="BP192">
-        <v>48.65671641791045</v>
-      </c>
-      <c r="BQ192">
         <v>46.86567164179105</v>
       </c>
     </row>
-    <row r="193" spans="1:69">
+    <row r="193" spans="1:67">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C193" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D193" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E193">
         <v>23</v>
       </c>
       <c r="F193" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G193">
         <v>876000</v>
@@ -42148,36 +40990,30 @@
         <v>0</v>
       </c>
       <c r="BN193">
-        <v>188.4</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="BO193">
-        <v>251.4</v>
-      </c>
-      <c r="BP193">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="BQ193">
         <v>35.12437810945273</v>
       </c>
     </row>
-    <row r="194" spans="1:69">
+    <row r="194" spans="1:67">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C194" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D194" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E194">
         <v>33</v>
       </c>
       <c r="F194" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G194">
         <v>4151000</v>
@@ -42357,27 +41193,21 @@
         <v>0</v>
       </c>
       <c r="BN194">
-        <v>140.2</v>
+        <v>57.51243781094527</v>
       </c>
       <c r="BO194">
-        <v>251.2</v>
-      </c>
-      <c r="BP194">
-        <v>57.51243781094527</v>
-      </c>
-      <c r="BQ194">
         <v>32.03980099502488</v>
       </c>
     </row>
-    <row r="195" spans="1:69">
+    <row r="195" spans="1:67">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C195" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D195" t="s">
         <v>29</v>
@@ -42386,7 +41216,7 @@
         <v>27</v>
       </c>
       <c r="F195" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G195">
         <v>2000000</v>
@@ -42566,36 +41396,30 @@
         <v>0</v>
       </c>
       <c r="BN195">
-        <v>173.6</v>
+        <v>51.24378109452736</v>
       </c>
       <c r="BO195">
-        <v>222.4</v>
-      </c>
-      <c r="BP195">
-        <v>51.24378109452736</v>
-      </c>
-      <c r="BQ195">
         <v>46.36815920398011</v>
       </c>
     </row>
-    <row r="196" spans="1:69">
+    <row r="196" spans="1:67">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C196" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D196" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E196">
         <v>26</v>
       </c>
       <c r="F196" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G196">
         <v>1550000</v>
@@ -42775,36 +41599,30 @@
         <v>0</v>
       </c>
       <c r="BN196">
-        <v>153</v>
+        <v>55.4228855721393</v>
       </c>
       <c r="BO196">
-        <v>318.4</v>
-      </c>
-      <c r="BP196">
-        <v>55.4228855721393</v>
-      </c>
-      <c r="BQ196">
         <v>17.11442786069652</v>
       </c>
     </row>
-    <row r="197" spans="1:69">
+    <row r="197" spans="1:67">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C197" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D197" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E197">
         <v>29</v>
       </c>
       <c r="F197" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G197">
         <v>2375000</v>
@@ -42984,36 +41802,30 @@
         <v>0</v>
       </c>
       <c r="BN197">
-        <v>178.2</v>
+        <v>45.27363184079602</v>
       </c>
       <c r="BO197">
-        <v>325.8</v>
-      </c>
-      <c r="BP197">
-        <v>45.27363184079602</v>
-      </c>
-      <c r="BQ197">
         <v>19.1044776119403</v>
       </c>
     </row>
-    <row r="198" spans="1:69">
+    <row r="198" spans="1:67">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C198" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D198" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E198">
         <v>31</v>
       </c>
       <c r="F198" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G198">
         <v>1853000</v>
@@ -43193,27 +42005,21 @@
         <v>0</v>
       </c>
       <c r="BN198">
-        <v>210</v>
+        <v>37.51243781094528</v>
       </c>
       <c r="BO198">
-        <v>324.4</v>
-      </c>
-      <c r="BP198">
-        <v>37.51243781094528</v>
-      </c>
-      <c r="BQ198">
         <v>15.52238805970149</v>
       </c>
     </row>
-    <row r="199" spans="1:69">
+    <row r="199" spans="1:67">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C199" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D199" t="s">
         <v>29</v>
@@ -43222,7 +42028,7 @@
         <v>27</v>
       </c>
       <c r="F199" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G199">
         <v>1950000</v>
@@ -43402,36 +42208,30 @@
         <v>0</v>
       </c>
       <c r="BN199">
-        <v>240.4</v>
+        <v>31.7412935323383</v>
       </c>
       <c r="BO199">
-        <v>256.4</v>
-      </c>
-      <c r="BP199">
-        <v>31.7412935323383</v>
-      </c>
-      <c r="BQ199">
         <v>33.53233830845772</v>
       </c>
     </row>
-    <row r="200" spans="1:69">
+    <row r="200" spans="1:67">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D200" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E200">
         <v>22</v>
       </c>
       <c r="F200" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G200">
         <v>923000</v>
@@ -43611,36 +42411,30 @@
         <v>0</v>
       </c>
       <c r="BN200">
-        <v>291.8</v>
+        <v>18.00995024875622</v>
       </c>
       <c r="BO200">
-        <v>305</v>
-      </c>
-      <c r="BP200">
-        <v>18.00995024875622</v>
-      </c>
-      <c r="BQ200">
         <v>23.98009950248757</v>
       </c>
     </row>
-    <row r="201" spans="1:69">
+    <row r="201" spans="1:67">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C201" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D201" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E201">
         <v>21</v>
       </c>
       <c r="F201" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G201">
         <v>225000</v>
@@ -43820,36 +42614,30 @@
         <v>0</v>
       </c>
       <c r="BN201">
-        <v>273.4</v>
+        <v>18.10945273631841</v>
       </c>
       <c r="BO201">
-        <v>244.2</v>
-      </c>
-      <c r="BP201">
-        <v>18.10945273631841</v>
-      </c>
-      <c r="BQ201">
         <v>32.93532338308458</v>
       </c>
     </row>
-    <row r="202" spans="1:69">
+    <row r="202" spans="1:67">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C202" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D202" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E202">
         <v>30</v>
       </c>
       <c r="F202" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G202">
         <v>900000</v>
@@ -44029,15 +42817,9 @@
         <v>0</v>
       </c>
       <c r="BN202">
-        <v>230.6</v>
+        <v>34.42786069651741</v>
       </c>
       <c r="BO202">
-        <v>289</v>
-      </c>
-      <c r="BP202">
-        <v>34.42786069651741</v>
-      </c>
-      <c r="BQ202">
         <v>22.18905472636816</v>
       </c>
     </row>
